--- a/data/san_miguel/San Miguel.xlsx
+++ b/data/san_miguel/San Miguel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maacr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maacr\Programming\DEI\src\data\san_miguel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9B6F6D-F00A-4C79-A044-C95DC1614C6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C18C7F9-0653-438D-B776-6D8DEAA6DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="90" windowWidth="14265" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14445" yWindow="90" windowWidth="14265" windowHeight="15420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vert" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>1 passo</t>
+  </si>
+  <si>
+    <t>287 passos</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +468,7 @@
         <v>2499</v>
       </c>
       <c r="G1" s="1">
-        <f>(F1+1)/(E1-D1)*1000</f>
+        <f t="shared" ref="G1:G32" si="0">(F1+1)/(E1-D1)*1000</f>
         <v>432.45113302196853</v>
       </c>
     </row>
@@ -481,7 +492,7 @@
         <v>2499</v>
       </c>
       <c r="G2" s="1">
-        <f>(F2+1)/(E2-D2)*1000</f>
+        <f t="shared" si="0"/>
         <v>429.33195947106299</v>
       </c>
     </row>
@@ -505,7 +516,7 @@
         <v>2499</v>
       </c>
       <c r="G3" s="1">
-        <f>(F3+1)/(E3-D3)*1000</f>
+        <f t="shared" si="0"/>
         <v>415.90417567792383</v>
       </c>
     </row>
@@ -529,7 +540,7 @@
         <v>2499</v>
       </c>
       <c r="G4" s="1">
-        <f>(F4+1)/(E4-D4)*1000</f>
+        <f t="shared" si="0"/>
         <v>412.67745130406075</v>
       </c>
     </row>
@@ -553,7 +564,7 @@
         <v>2499</v>
       </c>
       <c r="G5" s="1">
-        <f>(F5+1)/(E5-D5)*1000</f>
+        <f t="shared" si="0"/>
         <v>411.72595520421606</v>
       </c>
     </row>
@@ -577,7 +588,7 @@
         <v>2499</v>
       </c>
       <c r="G6" s="1">
-        <f>(F6+1)/(E6-D6)*1000</f>
+        <f t="shared" si="0"/>
         <v>410.03772347055929</v>
       </c>
     </row>
@@ -601,7 +612,7 @@
         <v>2499</v>
       </c>
       <c r="G7" s="1">
-        <f>(F7+1)/(E7-D7)*1000</f>
+        <f t="shared" si="0"/>
         <v>409.8360655737705</v>
       </c>
     </row>
@@ -625,7 +636,7 @@
         <v>2499</v>
       </c>
       <c r="G8" s="1">
-        <f>(F8+1)/(E8-D8)*1000</f>
+        <f t="shared" si="0"/>
         <v>407.16612377850163</v>
       </c>
     </row>
@@ -649,7 +660,7 @@
         <v>2499</v>
       </c>
       <c r="G9" s="1">
-        <f>(F9+1)/(E9-D9)*1000</f>
+        <f t="shared" si="0"/>
         <v>391.29754265143214</v>
       </c>
     </row>
@@ -673,7 +684,7 @@
         <v>2499</v>
       </c>
       <c r="G10" s="1">
-        <f>(F10+1)/(E10-D10)*1000</f>
+        <f t="shared" si="0"/>
         <v>389.71161340607949</v>
       </c>
     </row>
@@ -697,7 +708,7 @@
         <v>2499</v>
       </c>
       <c r="G11" s="1">
-        <f>(F11+1)/(E11-D11)*1000</f>
+        <f t="shared" si="0"/>
         <v>387.59689922480624</v>
       </c>
     </row>
@@ -721,7 +732,7 @@
         <v>2499</v>
       </c>
       <c r="G12" s="1">
-        <f>(F12+1)/(E12-D12)*1000</f>
+        <f t="shared" si="0"/>
         <v>382.14613268113726</v>
       </c>
     </row>
@@ -745,7 +756,7 @@
         <v>2499</v>
       </c>
       <c r="G13" s="1">
-        <f>(F13+1)/(E13-D13)*1000</f>
+        <f t="shared" si="0"/>
         <v>378.61578070573984</v>
       </c>
     </row>
@@ -769,7 +780,7 @@
         <v>2499</v>
       </c>
       <c r="G14" s="1">
-        <f>(F14+1)/(E14-D14)*1000</f>
+        <f t="shared" si="0"/>
         <v>377.75763070414018</v>
       </c>
     </row>
@@ -793,7 +804,7 @@
         <v>2499</v>
       </c>
       <c r="G15" s="1">
-        <f>(F15+1)/(E15-D15)*1000</f>
+        <f t="shared" si="0"/>
         <v>372.02380952380952</v>
       </c>
     </row>
@@ -817,7 +828,7 @@
         <v>2499</v>
       </c>
       <c r="G16" s="1">
-        <f>(F16+1)/(E16-D16)*1000</f>
+        <f t="shared" si="0"/>
         <v>367.05329613859931</v>
       </c>
     </row>
@@ -841,7 +852,7 @@
         <v>2499</v>
       </c>
       <c r="G17" s="1">
-        <f>(F17+1)/(E17-D17)*1000</f>
+        <f t="shared" si="0"/>
         <v>365.28345996493277</v>
       </c>
     </row>
@@ -865,7 +876,7 @@
         <v>2499</v>
       </c>
       <c r="G18" s="1">
-        <f>(F18+1)/(E18-D18)*1000</f>
+        <f t="shared" si="0"/>
         <v>350.18910211514219</v>
       </c>
     </row>
@@ -889,7 +900,7 @@
         <v>2499</v>
       </c>
       <c r="G19" s="1">
-        <f>(F19+1)/(E19-D19)*1000</f>
+        <f t="shared" si="0"/>
         <v>341.43676591095328</v>
       </c>
     </row>
@@ -913,7 +924,7 @@
         <v>2499</v>
       </c>
       <c r="G20" s="1">
-        <f>(F20+1)/(E20-D20)*1000</f>
+        <f t="shared" si="0"/>
         <v>339.81242354220473</v>
       </c>
     </row>
@@ -937,7 +948,7 @@
         <v>2499</v>
       </c>
       <c r="G21" s="1">
-        <f>(F21+1)/(E21-D21)*1000</f>
+        <f t="shared" si="0"/>
         <v>331.74097664543524</v>
       </c>
     </row>
@@ -961,7 +972,7 @@
         <v>2499</v>
       </c>
       <c r="G22" s="2">
-        <f>(F22+1)/(E22-D22)*1000</f>
+        <f t="shared" si="0"/>
         <v>329.38076416337287</v>
       </c>
     </row>
@@ -985,7 +996,7 @@
         <v>2499</v>
       </c>
       <c r="G23" s="3">
-        <f>(F23+1)/(E23-D23)*1000</f>
+        <f t="shared" si="0"/>
         <v>327.48231595493843</v>
       </c>
     </row>
@@ -1009,7 +1020,7 @@
         <v>2499</v>
       </c>
       <c r="G24" s="3">
-        <f>(F24+1)/(E24-D24)*1000</f>
+        <f t="shared" si="0"/>
         <v>313.44032096288868</v>
       </c>
     </row>
@@ -1033,7 +1044,7 @@
         <v>2499</v>
       </c>
       <c r="G25" s="3">
-        <f>(F25+1)/(E25-D25)*1000</f>
+        <f t="shared" si="0"/>
         <v>312.53906738342289</v>
       </c>
     </row>
@@ -1057,7 +1068,7 @@
         <v>2499</v>
       </c>
       <c r="G26" s="3">
-        <f>(F26+1)/(E26-D26)*1000</f>
+        <f t="shared" si="0"/>
         <v>310.86794329768713</v>
       </c>
     </row>
@@ -1081,7 +1092,7 @@
         <v>2499</v>
       </c>
       <c r="G27" s="3">
-        <f>(F27+1)/(E27-D27)*1000</f>
+        <f t="shared" si="0"/>
         <v>305.32486565705915</v>
       </c>
     </row>
@@ -1105,7 +1116,7 @@
         <v>2499</v>
       </c>
       <c r="G28" s="3">
-        <f>(F28+1)/(E28-D28)*1000</f>
+        <f t="shared" si="0"/>
         <v>304.28432327166507</v>
       </c>
     </row>
@@ -1129,7 +1140,7 @@
         <v>2499</v>
       </c>
       <c r="G29" s="3">
-        <f>(F29+1)/(E29-D29)*1000</f>
+        <f t="shared" si="0"/>
         <v>303.21406913280777</v>
       </c>
     </row>
@@ -1153,7 +1164,7 @@
         <v>2499</v>
       </c>
       <c r="G30" s="3">
-        <f>(F30+1)/(E30-D30)*1000</f>
+        <f t="shared" si="0"/>
         <v>302.00531529354919</v>
       </c>
     </row>
@@ -1177,7 +1188,7 @@
         <v>2499</v>
       </c>
       <c r="G31" s="3">
-        <f>(F31+1)/(E31-D31)*1000</f>
+        <f t="shared" si="0"/>
         <v>298.50746268656712</v>
       </c>
     </row>
@@ -1201,7 +1212,7 @@
         <v>2499</v>
       </c>
       <c r="G32" s="3">
-        <f>(F32+1)/(E32-D32)*1000</f>
+        <f t="shared" si="0"/>
         <v>297.93826719103799</v>
       </c>
     </row>
@@ -1225,7 +1236,7 @@
         <v>2499</v>
       </c>
       <c r="G33" s="3">
-        <f>(F33+1)/(E33-D33)*1000</f>
+        <f t="shared" ref="G33:G64" si="1">(F33+1)/(E33-D33)*1000</f>
         <v>297.65448267650913</v>
       </c>
     </row>
@@ -1249,7 +1260,7 @@
         <v>2499</v>
       </c>
       <c r="G34" s="3">
-        <f>(F34+1)/(E34-D34)*1000</f>
+        <f t="shared" si="1"/>
         <v>297.61904761904759</v>
       </c>
     </row>
@@ -1273,7 +1284,7 @@
         <v>2499</v>
       </c>
       <c r="G35" s="3">
-        <f>(F35+1)/(E35-D35)*1000</f>
+        <f t="shared" si="1"/>
         <v>295.15938606847698</v>
       </c>
     </row>
@@ -1297,7 +1308,7 @@
         <v>2499</v>
       </c>
       <c r="G36" s="3">
-        <f>(F36+1)/(E36-D36)*1000</f>
+        <f t="shared" si="1"/>
         <v>292.74004683840747</v>
       </c>
     </row>
@@ -1321,7 +1332,7 @@
         <v>2499</v>
       </c>
       <c r="G37" s="3">
-        <f>(F37+1)/(E37-D37)*1000</f>
+        <f t="shared" si="1"/>
         <v>291.91966370854738</v>
       </c>
     </row>
@@ -1345,7 +1356,7 @@
         <v>2499</v>
       </c>
       <c r="G38" s="3">
-        <f>(F38+1)/(E38-D38)*1000</f>
+        <f t="shared" si="1"/>
         <v>290.66387629345422</v>
       </c>
     </row>
@@ -1369,7 +1380,7 @@
         <v>2499</v>
       </c>
       <c r="G39" s="3">
-        <f>(F39+1)/(E39-D39)*1000</f>
+        <f t="shared" si="1"/>
         <v>289.85507246376812</v>
       </c>
     </row>
@@ -1393,7 +1404,7 @@
         <v>2499</v>
       </c>
       <c r="G40" s="3">
-        <f>(F40+1)/(E40-D40)*1000</f>
+        <f t="shared" si="1"/>
         <v>279.32960893854749</v>
       </c>
     </row>
@@ -1417,7 +1428,7 @@
         <v>2499</v>
       </c>
       <c r="G41" s="3">
-        <f>(F41+1)/(E41-D41)*1000</f>
+        <f t="shared" si="1"/>
         <v>272.83640729018884</v>
       </c>
     </row>
@@ -1441,7 +1452,7 @@
         <v>2499</v>
       </c>
       <c r="G42" s="3">
-        <f>(F42+1)/(E42-D42)*1000</f>
+        <f t="shared" si="1"/>
         <v>272.42018088700007</v>
       </c>
     </row>
@@ -1465,7 +1476,7 @@
         <v>2499</v>
       </c>
       <c r="G43" s="3">
-        <f>(F43+1)/(E43-D43)*1000</f>
+        <f t="shared" si="1"/>
         <v>268.55731012998172</v>
       </c>
     </row>
@@ -1489,7 +1500,7 @@
         <v>2499</v>
       </c>
       <c r="G44" s="3">
-        <f>(F44+1)/(E44-D44)*1000</f>
+        <f t="shared" si="1"/>
         <v>268.03902648225579</v>
       </c>
     </row>
@@ -1513,7 +1524,7 @@
         <v>2499</v>
       </c>
       <c r="G45" s="3">
-        <f>(F45+1)/(E45-D45)*1000</f>
+        <f t="shared" si="1"/>
         <v>266.7235676944415</v>
       </c>
     </row>
@@ -1537,7 +1548,7 @@
         <v>2499</v>
       </c>
       <c r="G46" s="3">
-        <f>(F46+1)/(E46-D46)*1000</f>
+        <f t="shared" si="1"/>
         <v>266.49610915680631</v>
       </c>
     </row>
@@ -1561,7 +1572,7 @@
         <v>2499</v>
       </c>
       <c r="G47" s="3">
-        <f>(F47+1)/(E47-D47)*1000</f>
+        <f t="shared" si="1"/>
         <v>262.13694033763232</v>
       </c>
     </row>
@@ -1585,7 +1596,7 @@
         <v>2499</v>
       </c>
       <c r="G48" s="3">
-        <f>(F48+1)/(E48-D48)*1000</f>
+        <f t="shared" si="1"/>
         <v>261.36957658128597</v>
       </c>
     </row>
@@ -1609,7 +1620,7 @@
         <v>2499</v>
       </c>
       <c r="G49" s="3">
-        <f>(F49+1)/(E49-D49)*1000</f>
+        <f t="shared" si="1"/>
         <v>255.2322613578356</v>
       </c>
     </row>
@@ -1633,7 +1644,7 @@
         <v>2499</v>
       </c>
       <c r="G50" s="3">
-        <f>(F50+1)/(E50-D50)*1000</f>
+        <f t="shared" si="1"/>
         <v>253.44687753446877</v>
       </c>
     </row>
@@ -1657,7 +1668,7 @@
         <v>2499</v>
       </c>
       <c r="G51" s="3">
-        <f>(F51+1)/(E51-D51)*1000</f>
+        <f t="shared" si="1"/>
         <v>252.95962764342812</v>
       </c>
     </row>
@@ -1681,7 +1692,7 @@
         <v>2499</v>
       </c>
       <c r="G52" s="3">
-        <f>(F52+1)/(E52-D52)*1000</f>
+        <f t="shared" si="1"/>
         <v>230.88289619504988</v>
       </c>
     </row>
@@ -1705,7 +1716,7 @@
         <v>2499</v>
       </c>
       <c r="G53" s="3">
-        <f>(F53+1)/(E53-D53)*1000</f>
+        <f t="shared" si="1"/>
         <v>229.2105986980838</v>
       </c>
     </row>
@@ -1729,7 +1740,7 @@
         <v>2499</v>
       </c>
       <c r="G54" s="3">
-        <f>(F54+1)/(E54-D54)*1000</f>
+        <f t="shared" si="1"/>
         <v>227.58306781975421</v>
       </c>
     </row>
@@ -1753,7 +1764,7 @@
         <v>2499</v>
       </c>
       <c r="G55" s="3">
-        <f>(F55+1)/(E55-D55)*1000</f>
+        <f t="shared" si="1"/>
         <v>226.28530050687905</v>
       </c>
     </row>
@@ -1777,7 +1788,7 @@
         <v>2499</v>
       </c>
       <c r="G56" s="3">
-        <f>(F56+1)/(E56-D56)*1000</f>
+        <f t="shared" si="1"/>
         <v>226.20340209916756</v>
       </c>
     </row>
@@ -1801,7 +1812,7 @@
         <v>2499</v>
       </c>
       <c r="G57" s="3">
-        <f>(F57+1)/(E57-D57)*1000</f>
+        <f t="shared" si="1"/>
         <v>225.97848684805209</v>
       </c>
     </row>
@@ -1825,7 +1836,7 @@
         <v>2499</v>
       </c>
       <c r="G58" s="3">
-        <f>(F58+1)/(E58-D58)*1000</f>
+        <f t="shared" si="1"/>
         <v>222.20247089147631</v>
       </c>
     </row>
@@ -1849,7 +1860,7 @@
         <v>2499</v>
       </c>
       <c r="G59" s="3">
-        <f>(F59+1)/(E59-D59)*1000</f>
+        <f t="shared" si="1"/>
         <v>220.80904433845612</v>
       </c>
     </row>
@@ -1873,7 +1884,7 @@
         <v>2499</v>
       </c>
       <c r="G60" s="3">
-        <f>(F60+1)/(E60-D60)*1000</f>
+        <f t="shared" si="1"/>
         <v>219.81886925173657</v>
       </c>
     </row>
@@ -1897,7 +1908,7 @@
         <v>2499</v>
       </c>
       <c r="G61" s="3">
-        <f>(F61+1)/(E61-D61)*1000</f>
+        <f t="shared" si="1"/>
         <v>218.95253109125943</v>
       </c>
     </row>
@@ -1921,7 +1932,7 @@
         <v>2499</v>
       </c>
       <c r="G62" s="3">
-        <f>(F62+1)/(E62-D62)*1000</f>
+        <f t="shared" si="1"/>
         <v>217.95989537925024</v>
       </c>
     </row>
@@ -1945,7 +1956,7 @@
         <v>2499</v>
       </c>
       <c r="G63" s="3">
-        <f>(F63+1)/(E63-D63)*1000</f>
+        <f t="shared" si="1"/>
         <v>216.65655602738539</v>
       </c>
     </row>
@@ -1969,7 +1980,7 @@
         <v>2499</v>
       </c>
       <c r="G64" s="3">
-        <f>(F64+1)/(E64-D64)*1000</f>
+        <f t="shared" si="1"/>
         <v>213.56569280710747</v>
       </c>
     </row>
@@ -1993,7 +2004,7 @@
         <v>2499</v>
       </c>
       <c r="G65" s="3">
-        <f>(F65+1)/(E65-D65)*1000</f>
+        <f t="shared" ref="G65:G96" si="2">(F65+1)/(E65-D65)*1000</f>
         <v>213.00161881230298</v>
       </c>
     </row>
@@ -2017,7 +2028,7 @@
         <v>2499</v>
       </c>
       <c r="G66" s="3">
-        <f>(F66+1)/(E66-D66)*1000</f>
+        <f t="shared" si="2"/>
         <v>210.40228917690624</v>
       </c>
     </row>
@@ -2041,7 +2052,7 @@
         <v>2499</v>
       </c>
       <c r="G67" s="3">
-        <f>(F67+1)/(E67-D67)*1000</f>
+        <f t="shared" si="2"/>
         <v>203.6991770553247</v>
       </c>
     </row>
@@ -2065,7 +2076,7 @@
         <v>2499</v>
       </c>
       <c r="G68" s="3">
-        <f>(F68+1)/(E68-D68)*1000</f>
+        <f t="shared" si="2"/>
         <v>203.56648481394024</v>
       </c>
     </row>
@@ -2089,7 +2100,7 @@
         <v>2499</v>
       </c>
       <c r="G69" s="3">
-        <f>(F69+1)/(E69-D69)*1000</f>
+        <f t="shared" si="2"/>
         <v>195.94012069911435</v>
       </c>
     </row>
@@ -2113,7 +2124,7 @@
         <v>2499</v>
       </c>
       <c r="G70" s="3">
-        <f>(F70+1)/(E70-D70)*1000</f>
+        <f t="shared" si="2"/>
         <v>193.10984087749111</v>
       </c>
     </row>
@@ -2137,7 +2148,7 @@
         <v>2499</v>
       </c>
       <c r="G71" s="3">
-        <f>(F71+1)/(E71-D71)*1000</f>
+        <f t="shared" si="2"/>
         <v>183.95879323031642</v>
       </c>
     </row>
@@ -2161,7 +2172,7 @@
         <v>2499</v>
       </c>
       <c r="G72" s="3">
-        <f>(F72+1)/(E72-D72)*1000</f>
+        <f t="shared" si="2"/>
         <v>180.11527377521614</v>
       </c>
     </row>
@@ -2185,7 +2196,7 @@
         <v>2499</v>
       </c>
       <c r="G73" s="3">
-        <f>(F73+1)/(E73-D73)*1000</f>
+        <f t="shared" si="2"/>
         <v>179.93378436735281</v>
       </c>
     </row>
@@ -2209,7 +2220,7 @@
         <v>2499</v>
       </c>
       <c r="G74" s="3">
-        <f>(F74+1)/(E74-D74)*1000</f>
+        <f t="shared" si="2"/>
         <v>174.02199638034247</v>
       </c>
     </row>
@@ -2233,7 +2244,7 @@
         <v>2499</v>
       </c>
       <c r="G75" s="3">
-        <f>(F75+1)/(E75-D75)*1000</f>
+        <f t="shared" si="2"/>
         <v>172.96250172962502</v>
       </c>
     </row>
@@ -2257,7 +2268,7 @@
         <v>2499</v>
       </c>
       <c r="G76" s="3">
-        <f>(F76+1)/(E76-D76)*1000</f>
+        <f t="shared" si="2"/>
         <v>168.78206859303268</v>
       </c>
     </row>
@@ -2281,7 +2292,7 @@
         <v>2499</v>
       </c>
       <c r="G77" s="3">
-        <f>(F77+1)/(E77-D77)*1000</f>
+        <f t="shared" si="2"/>
         <v>167.71769757144776</v>
       </c>
     </row>
@@ -2305,7 +2316,7 @@
         <v>2499</v>
       </c>
       <c r="G78" s="3">
-        <f>(F78+1)/(E78-D78)*1000</f>
+        <f t="shared" si="2"/>
         <v>164.57112764136662</v>
       </c>
     </row>
@@ -2329,7 +2340,7 @@
         <v>2499</v>
       </c>
       <c r="G79" s="3">
-        <f>(F79+1)/(E79-D79)*1000</f>
+        <f t="shared" si="2"/>
         <v>163.1321370309951</v>
       </c>
     </row>
@@ -2353,7 +2364,7 @@
         <v>2499</v>
       </c>
       <c r="G80" s="3">
-        <f>(F80+1)/(E80-D80)*1000</f>
+        <f t="shared" si="2"/>
         <v>162.14813853936957</v>
       </c>
     </row>
@@ -2377,7 +2388,7 @@
         <v>2499</v>
       </c>
       <c r="G81" s="3">
-        <f>(F81+1)/(E81-D81)*1000</f>
+        <f t="shared" si="2"/>
         <v>160.79238487265243</v>
       </c>
     </row>
@@ -2401,7 +2412,7 @@
         <v>2499</v>
       </c>
       <c r="G82" s="3">
-        <f>(F82+1)/(E82-D82)*1000</f>
+        <f t="shared" si="2"/>
         <v>159.43877551020407</v>
       </c>
     </row>
@@ -2425,7 +2436,7 @@
         <v>2499</v>
       </c>
       <c r="G83" s="3">
-        <f>(F83+1)/(E83-D83)*1000</f>
+        <f t="shared" si="2"/>
         <v>157.4307304785894</v>
       </c>
     </row>
@@ -2449,7 +2460,7 @@
         <v>2499</v>
       </c>
       <c r="G84" s="3">
-        <f>(F84+1)/(E84-D84)*1000</f>
+        <f t="shared" si="2"/>
         <v>154.06421396438037</v>
       </c>
     </row>
@@ -2473,7 +2484,7 @@
         <v>2499</v>
       </c>
       <c r="G85" s="3">
-        <f>(F85+1)/(E85-D85)*1000</f>
+        <f t="shared" si="2"/>
         <v>153.1581204435459</v>
       </c>
     </row>
@@ -2497,7 +2508,7 @@
         <v>2499</v>
       </c>
       <c r="G86" s="3">
-        <f>(F86+1)/(E86-D86)*1000</f>
+        <f t="shared" si="2"/>
         <v>151.56107911488328</v>
       </c>
     </row>
@@ -2521,7 +2532,7 @@
         <v>2499</v>
       </c>
       <c r="G87" s="3">
-        <f>(F87+1)/(E87-D87)*1000</f>
+        <f t="shared" si="2"/>
         <v>151.41420870934527</v>
       </c>
     </row>
@@ -2545,7 +2556,7 @@
         <v>2499</v>
       </c>
       <c r="G88" s="3">
-        <f>(F88+1)/(E88-D88)*1000</f>
+        <f t="shared" si="2"/>
         <v>148.96025740332479</v>
       </c>
     </row>
@@ -2569,7 +2580,7 @@
         <v>2499</v>
       </c>
       <c r="G89" s="3">
-        <f>(F89+1)/(E89-D89)*1000</f>
+        <f t="shared" si="2"/>
         <v>141.62701110355766</v>
       </c>
     </row>
@@ -2593,7 +2604,7 @@
         <v>2499</v>
       </c>
       <c r="G90" s="3">
-        <f>(F90+1)/(E90-D90)*1000</f>
+        <f t="shared" si="2"/>
         <v>141.05964001579869</v>
       </c>
     </row>
@@ -2617,7 +2628,7 @@
         <v>2499</v>
       </c>
       <c r="G91" s="3">
-        <f>(F91+1)/(E91-D91)*1000</f>
+        <f t="shared" si="2"/>
         <v>140.6311526129268</v>
       </c>
     </row>
@@ -2641,7 +2652,7 @@
         <v>2499</v>
       </c>
       <c r="G92" s="3">
-        <f>(F92+1)/(E92-D92)*1000</f>
+        <f t="shared" si="2"/>
         <v>140.3784603290471</v>
       </c>
     </row>
@@ -2665,7 +2676,7 @@
         <v>2499</v>
       </c>
       <c r="G93" s="3">
-        <f>(F93+1)/(E93-D93)*1000</f>
+        <f t="shared" si="2"/>
         <v>139.96193035494346</v>
       </c>
     </row>
@@ -2689,7 +2700,7 @@
         <v>2499</v>
       </c>
       <c r="G94" s="3">
-        <f>(F94+1)/(E94-D94)*1000</f>
+        <f t="shared" si="2"/>
         <v>139.16722333556001</v>
       </c>
     </row>
@@ -2713,7 +2724,7 @@
         <v>2499</v>
       </c>
       <c r="G95" s="3">
-        <f>(F95+1)/(E95-D95)*1000</f>
+        <f t="shared" si="2"/>
         <v>138.28198462304331</v>
       </c>
     </row>
@@ -2737,7 +2748,7 @@
         <v>2499</v>
       </c>
       <c r="G96" s="3">
-        <f>(F96+1)/(E96-D96)*1000</f>
+        <f t="shared" si="2"/>
         <v>137.51375137513753</v>
       </c>
     </row>
@@ -2761,7 +2772,7 @@
         <v>2499</v>
       </c>
       <c r="G97" s="3">
-        <f>(F97+1)/(E97-D97)*1000</f>
+        <f t="shared" ref="G97:G128" si="3">(F97+1)/(E97-D97)*1000</f>
         <v>136.79142044210988</v>
       </c>
     </row>
@@ -2785,7 +2796,7 @@
         <v>2499</v>
       </c>
       <c r="G98" s="3">
-        <f>(F98+1)/(E98-D98)*1000</f>
+        <f t="shared" si="3"/>
         <v>136.62695376543886</v>
       </c>
     </row>
@@ -2809,7 +2820,7 @@
         <v>2499</v>
       </c>
       <c r="G99" s="3">
-        <f>(F99+1)/(E99-D99)*1000</f>
+        <f t="shared" si="3"/>
         <v>133.24805457840316</v>
       </c>
     </row>
@@ -2833,7 +2844,7 @@
         <v>2499</v>
       </c>
       <c r="G100" s="3">
-        <f>(F100+1)/(E100-D100)*1000</f>
+        <f t="shared" si="3"/>
         <v>130.75997698624406</v>
       </c>
     </row>
@@ -2857,7 +2868,7 @@
         <v>2499</v>
       </c>
       <c r="G101" s="3">
-        <f>(F101+1)/(E101-D101)*1000</f>
+        <f t="shared" si="3"/>
         <v>130.75997698624406</v>
       </c>
     </row>
@@ -2881,7 +2892,7 @@
         <v>2499</v>
       </c>
       <c r="G102" s="3">
-        <f>(F102+1)/(E102-D102)*1000</f>
+        <f t="shared" si="3"/>
         <v>130.54830287206266</v>
       </c>
     </row>
@@ -2905,7 +2916,7 @@
         <v>2499</v>
       </c>
       <c r="G103" s="3">
-        <f>(F103+1)/(E103-D103)*1000</f>
+        <f t="shared" si="3"/>
         <v>128.11314953366815</v>
       </c>
     </row>
@@ -2929,7 +2940,7 @@
         <v>2499</v>
       </c>
       <c r="G104" s="3">
-        <f>(F104+1)/(E104-D104)*1000</f>
+        <f t="shared" si="3"/>
         <v>127.68782879615914</v>
       </c>
     </row>
@@ -2953,7 +2964,7 @@
         <v>2499</v>
       </c>
       <c r="G105" s="3">
-        <f>(F105+1)/(E105-D105)*1000</f>
+        <f t="shared" si="3"/>
         <v>118.02473798508167</v>
       </c>
     </row>
@@ -2977,7 +2988,7 @@
         <v>2499</v>
       </c>
       <c r="G106" s="3">
-        <f>(F106+1)/(E106-D106)*1000</f>
+        <f t="shared" si="3"/>
         <v>108.8660512105905</v>
       </c>
     </row>
@@ -3001,7 +3012,7 @@
         <v>2499</v>
       </c>
       <c r="G107" s="3">
-        <f>(F107+1)/(E107-D107)*1000</f>
+        <f t="shared" si="3"/>
         <v>105.1701653274999</v>
       </c>
     </row>
@@ -3025,7 +3036,7 @@
         <v>2499</v>
       </c>
       <c r="G108" s="3">
-        <f>(F108+1)/(E108-D108)*1000</f>
+        <f t="shared" si="3"/>
         <v>103.76457892333873</v>
       </c>
     </row>
@@ -3049,7 +3060,7 @@
         <v>2499</v>
       </c>
       <c r="G109" s="3">
-        <f>(F109+1)/(E109-D109)*1000</f>
+        <f t="shared" si="3"/>
         <v>102.82987824942414</v>
       </c>
     </row>
@@ -3073,7 +3084,7 @@
         <v>2499</v>
       </c>
       <c r="G110" s="3">
-        <f>(F110+1)/(E110-D110)*1000</f>
+        <f t="shared" si="3"/>
         <v>101.1981865284974</v>
       </c>
     </row>
@@ -3097,7 +3108,7 @@
         <v>2499</v>
       </c>
       <c r="G111" s="3">
-        <f>(F111+1)/(E111-D111)*1000</f>
+        <f t="shared" si="3"/>
         <v>96.105793257217542</v>
       </c>
     </row>
@@ -3121,7 +3132,7 @@
         <v>2499</v>
       </c>
       <c r="G112" s="3">
-        <f>(F112+1)/(E112-D112)*1000</f>
+        <f t="shared" si="3"/>
         <v>92.339513924798695</v>
       </c>
     </row>
@@ -3145,7 +3156,7 @@
         <v>2499</v>
       </c>
       <c r="G113" s="3">
-        <f>(F113+1)/(E113-D113)*1000</f>
+        <f t="shared" si="3"/>
         <v>90.694721567204795</v>
       </c>
     </row>
@@ -3169,7 +3180,7 @@
         <v>2499</v>
       </c>
       <c r="G114" s="3">
-        <f>(F114+1)/(E114-D114)*1000</f>
+        <f t="shared" si="3"/>
         <v>88.545725012396389</v>
       </c>
     </row>
@@ -3193,7 +3204,7 @@
         <v>2499</v>
       </c>
       <c r="G115" s="3">
-        <f>(F115+1)/(E115-D115)*1000</f>
+        <f t="shared" si="3"/>
         <v>87.0170553428472</v>
       </c>
     </row>
@@ -3217,7 +3228,7 @@
         <v>2499</v>
       </c>
       <c r="G116" s="3">
-        <f>(F116+1)/(E116-D116)*1000</f>
+        <f t="shared" si="3"/>
         <v>86.505190311418673</v>
       </c>
     </row>
@@ -3241,7 +3252,7 @@
         <v>2499</v>
       </c>
       <c r="G117" s="3">
-        <f>(F117+1)/(E117-D117)*1000</f>
+        <f t="shared" si="3"/>
         <v>83.561735410120988</v>
       </c>
     </row>
@@ -3265,7 +3276,7 @@
         <v>2499</v>
       </c>
       <c r="G118" s="3">
-        <f>(F118+1)/(E118-D118)*1000</f>
+        <f t="shared" si="3"/>
         <v>70.559679376816916</v>
       </c>
     </row>
@@ -3289,7 +3300,7 @@
         <v>2499</v>
       </c>
       <c r="G119" s="3">
-        <f>(F119+1)/(E119-D119)*1000</f>
+        <f t="shared" si="3"/>
         <v>69.926157977176103</v>
       </c>
     </row>
@@ -3313,7 +3324,7 @@
         <v>2499</v>
       </c>
       <c r="G120" s="3">
-        <f>(F120+1)/(E120-D120)*1000</f>
+        <f t="shared" si="3"/>
         <v>68.1403145356919</v>
       </c>
     </row>
@@ -3337,7 +3348,7 @@
         <v>2499</v>
       </c>
       <c r="G121" s="3">
-        <f>(F121+1)/(E121-D121)*1000</f>
+        <f t="shared" si="3"/>
         <v>67.774554721175477</v>
       </c>
     </row>
@@ -3361,7 +3372,7 @@
         <v>2499</v>
       </c>
       <c r="G122" s="3">
-        <f>(F122+1)/(E122-D122)*1000</f>
+        <f t="shared" si="3"/>
         <v>66.092105958864281</v>
       </c>
     </row>
@@ -3385,7 +3396,7 @@
         <v>2499</v>
       </c>
       <c r="G123" s="3">
-        <f>(F123+1)/(E123-D123)*1000</f>
+        <f t="shared" si="3"/>
         <v>65.255409673461926</v>
       </c>
     </row>
@@ -3409,7 +3420,7 @@
         <v>2499</v>
       </c>
       <c r="G124" s="3">
-        <f>(F124+1)/(E124-D124)*1000</f>
+        <f t="shared" si="3"/>
         <v>52.031302031302033</v>
       </c>
     </row>
@@ -3433,7 +3444,7 @@
         <v>2499</v>
       </c>
       <c r="G125" s="3">
-        <f>(F125+1)/(E125-D125)*1000</f>
+        <f t="shared" si="3"/>
         <v>46.306586648884938</v>
       </c>
     </row>
@@ -3457,7 +3468,7 @@
         <v>2499</v>
       </c>
       <c r="G126" s="3">
-        <f>(F126+1)/(E126-D126)*1000</f>
+        <f t="shared" si="3"/>
         <v>44.444444444444443</v>
       </c>
     </row>
@@ -3481,7 +3492,7 @@
         <v>2499</v>
       </c>
       <c r="G127" s="3">
-        <f>(F127+1)/(E127-D127)*1000</f>
+        <f t="shared" si="3"/>
         <v>35.128147482014384</v>
       </c>
     </row>
@@ -3520,7 +3531,7 @@
         <v>2499</v>
       </c>
       <c r="G1" s="1">
-        <f>(F1+1)/(E1-D1)*1000</f>
+        <f t="shared" ref="G1:G32" si="0">(F1+1)/(E1-D1)*1000</f>
         <v>373.41299477221804</v>
       </c>
     </row>
@@ -3544,7 +3555,7 @@
         <v>2499</v>
       </c>
       <c r="G2" s="1">
-        <f>(F2+1)/(E2-D2)*1000</f>
+        <f t="shared" si="0"/>
         <v>367.64705882352945</v>
       </c>
     </row>
@@ -3568,7 +3579,7 @@
         <v>2499</v>
       </c>
       <c r="G3" s="1">
-        <f>(F3+1)/(E3-D3)*1000</f>
+        <f t="shared" si="0"/>
         <v>352.01351731906504</v>
       </c>
     </row>
@@ -3592,7 +3603,7 @@
         <v>2499</v>
       </c>
       <c r="G4" s="1">
-        <f>(F4+1)/(E4-D4)*1000</f>
+        <f t="shared" si="0"/>
         <v>346.06866002214838</v>
       </c>
     </row>
@@ -3616,7 +3627,7 @@
         <v>2499</v>
       </c>
       <c r="G5" s="1">
-        <f>(F5+1)/(E5-D5)*1000</f>
+        <f t="shared" si="0"/>
         <v>343.31227684702003</v>
       </c>
     </row>
@@ -3640,7 +3651,7 @@
         <v>2499</v>
       </c>
       <c r="G6" s="1">
-        <f>(F6+1)/(E6-D6)*1000</f>
+        <f t="shared" si="0"/>
         <v>342.41884673332419</v>
       </c>
     </row>
@@ -3664,7 +3675,7 @@
         <v>2499</v>
       </c>
       <c r="G7" s="1">
-        <f>(F7+1)/(E7-D7)*1000</f>
+        <f t="shared" si="0"/>
         <v>334.89618218352314</v>
       </c>
     </row>
@@ -3688,7 +3699,7 @@
         <v>2499</v>
       </c>
       <c r="G8" s="1">
-        <f>(F8+1)/(E8-D8)*1000</f>
+        <f t="shared" si="0"/>
         <v>331.30135170951496</v>
       </c>
     </row>
@@ -3712,7 +3723,7 @@
         <v>2499</v>
       </c>
       <c r="G9" s="1">
-        <f>(F9+1)/(E9-D9)*1000</f>
+        <f t="shared" si="0"/>
         <v>322.62227384178607</v>
       </c>
     </row>
@@ -3736,7 +3747,7 @@
         <v>2499</v>
       </c>
       <c r="G10" s="1">
-        <f>(F10+1)/(E10-D10)*1000</f>
+        <f t="shared" si="0"/>
         <v>315.09957146458277</v>
       </c>
     </row>
@@ -3760,7 +3771,7 @@
         <v>2499</v>
       </c>
       <c r="G11" s="2">
-        <f>(F11+1)/(E11-D11)*1000</f>
+        <f t="shared" si="0"/>
         <v>311.33250311332506</v>
       </c>
     </row>
@@ -3784,7 +3795,7 @@
         <v>2499</v>
       </c>
       <c r="G12" s="3">
-        <f>(F12+1)/(E12-D12)*1000</f>
+        <f t="shared" si="0"/>
         <v>309.17635419243135</v>
       </c>
     </row>
@@ -3808,7 +3819,7 @@
         <v>2499</v>
       </c>
       <c r="G13" s="3">
-        <f>(F13+1)/(E13-D13)*1000</f>
+        <f t="shared" si="0"/>
         <v>308.68008396098287</v>
       </c>
     </row>
@@ -3832,7 +3843,7 @@
         <v>2499</v>
       </c>
       <c r="G14" s="3">
-        <f>(F14+1)/(E14-D14)*1000</f>
+        <f t="shared" si="0"/>
         <v>307.50307503075032</v>
       </c>
     </row>
@@ -3856,7 +3867,7 @@
         <v>2499</v>
       </c>
       <c r="G15" s="3">
-        <f>(F15+1)/(E15-D15)*1000</f>
+        <f t="shared" si="0"/>
         <v>306.37254901960785</v>
       </c>
     </row>
@@ -3880,7 +3891,7 @@
         <v>2499</v>
       </c>
       <c r="G16" s="3">
-        <f>(F16+1)/(E16-D16)*1000</f>
+        <f t="shared" si="0"/>
         <v>305.99755201958385</v>
       </c>
     </row>
@@ -3904,7 +3915,7 @@
         <v>2499</v>
       </c>
       <c r="G17" s="3">
-        <f>(F17+1)/(E17-D17)*1000</f>
+        <f t="shared" si="0"/>
         <v>297.4773917182294</v>
       </c>
     </row>
@@ -3928,7 +3939,7 @@
         <v>2499</v>
       </c>
       <c r="G18" s="3">
-        <f>(F18+1)/(E18-D18)*1000</f>
+        <f t="shared" si="0"/>
         <v>293.73751615556336</v>
       </c>
     </row>
@@ -3952,7 +3963,7 @@
         <v>2499</v>
       </c>
       <c r="G19" s="3">
-        <f>(F19+1)/(E19-D19)*1000</f>
+        <f t="shared" si="0"/>
         <v>291.91966370854738</v>
       </c>
     </row>
@@ -3976,7 +3987,7 @@
         <v>2499</v>
       </c>
       <c r="G20" s="3">
-        <f>(F20+1)/(E20-D20)*1000</f>
+        <f t="shared" si="0"/>
         <v>291.3752913752914</v>
       </c>
     </row>
@@ -4000,7 +4011,7 @@
         <v>2499</v>
       </c>
       <c r="G21" s="3">
-        <f>(F21+1)/(E21-D21)*1000</f>
+        <f t="shared" si="0"/>
         <v>290.46125246892063</v>
       </c>
     </row>
@@ -4024,7 +4035,7 @@
         <v>2499</v>
       </c>
       <c r="G22" s="3">
-        <f>(F22+1)/(E22-D22)*1000</f>
+        <f t="shared" si="0"/>
         <v>271.82776992497554</v>
       </c>
     </row>
@@ -4048,7 +4059,7 @@
         <v>2499</v>
       </c>
       <c r="G23" s="3">
-        <f>(F23+1)/(E23-D23)*1000</f>
+        <f t="shared" si="0"/>
         <v>271.32624267419141</v>
       </c>
     </row>
@@ -4072,7 +4083,7 @@
         <v>2499</v>
       </c>
       <c r="G24" s="3">
-        <f>(F24+1)/(E24-D24)*1000</f>
+        <f t="shared" si="0"/>
         <v>264.41036488630351</v>
       </c>
     </row>
@@ -4096,7 +4107,7 @@
         <v>2499</v>
       </c>
       <c r="G25" s="3">
-        <f>(F25+1)/(E25-D25)*1000</f>
+        <f t="shared" si="0"/>
         <v>249.87506246876561</v>
       </c>
     </row>
@@ -4120,7 +4131,7 @@
         <v>2499</v>
       </c>
       <c r="G26" s="3">
-        <f>(F26+1)/(E26-D26)*1000</f>
+        <f t="shared" si="0"/>
         <v>249.30195452732349</v>
       </c>
     </row>
@@ -4144,7 +4155,7 @@
         <v>2499</v>
       </c>
       <c r="G27" s="3">
-        <f>(F27+1)/(E27-D27)*1000</f>
+        <f t="shared" si="0"/>
         <v>248.85526577742385</v>
       </c>
     </row>
@@ -4168,7 +4179,7 @@
         <v>2499</v>
       </c>
       <c r="G28" s="3">
-        <f>(F28+1)/(E28-D28)*1000</f>
+        <f t="shared" si="0"/>
         <v>248.18822595056091</v>
       </c>
     </row>
@@ -4192,7 +4203,7 @@
         <v>2499</v>
       </c>
       <c r="G29" s="3">
-        <f>(F29+1)/(E29-D29)*1000</f>
+        <f t="shared" si="0"/>
         <v>244.66627520062633</v>
       </c>
     </row>
@@ -4216,7 +4227,7 @@
         <v>2499</v>
       </c>
       <c r="G30" s="3">
-        <f>(F30+1)/(E30-D30)*1000</f>
+        <f t="shared" si="0"/>
         <v>242.36548715462919</v>
       </c>
     </row>
@@ -4240,7 +4251,7 @@
         <v>2499</v>
       </c>
       <c r="G31" s="3">
-        <f>(F31+1)/(E31-D31)*1000</f>
+        <f t="shared" si="0"/>
         <v>239.96928393165675</v>
       </c>
     </row>
@@ -4264,7 +4275,7 @@
         <v>2499</v>
       </c>
       <c r="G32" s="3">
-        <f>(F32+1)/(E32-D32)*1000</f>
+        <f t="shared" si="0"/>
         <v>238.34493278672895</v>
       </c>
     </row>
@@ -4288,7 +4299,7 @@
         <v>2499</v>
       </c>
       <c r="G33" s="3">
-        <f>(F33+1)/(E33-D33)*1000</f>
+        <f t="shared" ref="G33:G64" si="1">(F33+1)/(E33-D33)*1000</f>
         <v>238.11791599199924</v>
       </c>
     </row>
@@ -4312,7 +4323,7 @@
         <v>2499</v>
       </c>
       <c r="G34" s="3">
-        <f>(F34+1)/(E34-D34)*1000</f>
+        <f t="shared" si="1"/>
         <v>237.07918444760551</v>
       </c>
     </row>
@@ -4336,7 +4347,7 @@
         <v>2499</v>
       </c>
       <c r="G35" s="3">
-        <f>(F35+1)/(E35-D35)*1000</f>
+        <f t="shared" si="1"/>
         <v>237.034227742486</v>
       </c>
     </row>
@@ -4360,7 +4371,7 @@
         <v>2499</v>
       </c>
       <c r="G36" s="3">
-        <f>(F36+1)/(E36-D36)*1000</f>
+        <f t="shared" si="1"/>
         <v>236.16096731532213</v>
       </c>
     </row>
@@ -4384,7 +4395,7 @@
         <v>2499</v>
       </c>
       <c r="G37" s="3">
-        <f>(F37+1)/(E37-D37)*1000</f>
+        <f t="shared" si="1"/>
         <v>234.01666198633342</v>
       </c>
     </row>
@@ -4408,7 +4419,7 @@
         <v>2499</v>
       </c>
       <c r="G38" s="3">
-        <f>(F38+1)/(E38-D38)*1000</f>
+        <f t="shared" si="1"/>
         <v>233.97285914833878</v>
       </c>
     </row>
@@ -4432,7 +4443,7 @@
         <v>2499</v>
       </c>
       <c r="G39" s="3">
-        <f>(F39+1)/(E39-D39)*1000</f>
+        <f t="shared" si="1"/>
         <v>225.02250225022502</v>
       </c>
     </row>
@@ -4456,7 +4467,7 @@
         <v>2499</v>
       </c>
       <c r="G40" s="3">
-        <f>(F40+1)/(E40-D40)*1000</f>
+        <f t="shared" si="1"/>
         <v>223.67361546032029</v>
       </c>
     </row>
@@ -4480,7 +4491,7 @@
         <v>2499</v>
       </c>
       <c r="G41" s="3">
-        <f>(F41+1)/(E41-D41)*1000</f>
+        <f t="shared" si="1"/>
         <v>222.24197706462797</v>
       </c>
     </row>
@@ -4504,7 +4515,7 @@
         <v>2499</v>
       </c>
       <c r="G42" s="3">
-        <f>(F42+1)/(E42-D42)*1000</f>
+        <f t="shared" si="1"/>
         <v>219.74158389733671</v>
       </c>
     </row>
@@ -4528,7 +4539,7 @@
         <v>2499</v>
       </c>
       <c r="G43" s="3">
-        <f>(F43+1)/(E43-D43)*1000</f>
+        <f t="shared" si="1"/>
         <v>219.70296159592232</v>
       </c>
     </row>
@@ -4552,7 +4563,7 @@
         <v>2499</v>
       </c>
       <c r="G44" s="3">
-        <f>(F44+1)/(E44-D44)*1000</f>
+        <f t="shared" si="1"/>
         <v>218.91418563922943</v>
       </c>
     </row>
@@ -4576,7 +4587,7 @@
         <v>2499</v>
       </c>
       <c r="G45" s="3">
-        <f>(F45+1)/(E45-D45)*1000</f>
+        <f t="shared" si="1"/>
         <v>214.57385632134583</v>
       </c>
     </row>
@@ -4600,7 +4611,7 @@
         <v>2499</v>
       </c>
       <c r="G46" s="3">
-        <f>(F46+1)/(E46-D46)*1000</f>
+        <f t="shared" si="1"/>
         <v>209.87239758226997</v>
       </c>
     </row>
@@ -4624,7 +4635,7 @@
         <v>2499</v>
       </c>
       <c r="G47" s="3">
-        <f>(F47+1)/(E47-D47)*1000</f>
+        <f t="shared" si="1"/>
         <v>207.1251035625518</v>
       </c>
     </row>
@@ -4648,7 +4659,7 @@
         <v>2499</v>
       </c>
       <c r="G48" s="3">
-        <f>(F48+1)/(E48-D48)*1000</f>
+        <f t="shared" si="1"/>
         <v>204.85086856768274</v>
       </c>
     </row>
@@ -4672,7 +4683,7 @@
         <v>2499</v>
       </c>
       <c r="G49" s="3">
-        <f>(F49+1)/(E49-D49)*1000</f>
+        <f t="shared" si="1"/>
         <v>200.77096048827497</v>
       </c>
     </row>
@@ -4696,7 +4707,7 @@
         <v>2499</v>
       </c>
       <c r="G50" s="3">
-        <f>(F50+1)/(E50-D50)*1000</f>
+        <f t="shared" si="1"/>
         <v>200.27237042377632</v>
       </c>
     </row>
@@ -4720,7 +4731,7 @@
         <v>2499</v>
       </c>
       <c r="G51" s="3">
-        <f>(F51+1)/(E51-D51)*1000</f>
+        <f t="shared" si="1"/>
         <v>196.78841309823679</v>
       </c>
     </row>
@@ -4744,7 +4755,7 @@
         <v>2499</v>
       </c>
       <c r="G52" s="3">
-        <f>(F52+1)/(E52-D52)*1000</f>
+        <f t="shared" si="1"/>
         <v>196.27855853026617</v>
       </c>
     </row>
@@ -4768,7 +4779,7 @@
         <v>2499</v>
       </c>
       <c r="G53" s="3">
-        <f>(F53+1)/(E53-D53)*1000</f>
+        <f t="shared" si="1"/>
         <v>191.60024524831394</v>
       </c>
     </row>
@@ -4792,7 +4803,7 @@
         <v>2499</v>
       </c>
       <c r="G54" s="3">
-        <f>(F54+1)/(E54-D54)*1000</f>
+        <f t="shared" si="1"/>
         <v>191.49751053236309</v>
       </c>
     </row>
@@ -4816,7 +4827,7 @@
         <v>2499</v>
       </c>
       <c r="G55" s="3">
-        <f>(F55+1)/(E55-D55)*1000</f>
+        <f t="shared" si="1"/>
         <v>185.21262409245816</v>
       </c>
     </row>
@@ -4840,7 +4851,7 @@
         <v>2499</v>
       </c>
       <c r="G56" s="3">
-        <f>(F56+1)/(E56-D56)*1000</f>
+        <f t="shared" si="1"/>
         <v>184.08070097930934</v>
       </c>
     </row>
@@ -4864,7 +4875,7 @@
         <v>2499</v>
       </c>
       <c r="G57" s="3">
-        <f>(F57+1)/(E57-D57)*1000</f>
+        <f t="shared" si="1"/>
         <v>181.39602379915831</v>
       </c>
     </row>
@@ -4888,7 +4899,7 @@
         <v>2499</v>
       </c>
       <c r="G58" s="3">
-        <f>(F58+1)/(E58-D58)*1000</f>
+        <f t="shared" si="1"/>
         <v>180.31013342949873</v>
       </c>
     </row>
@@ -4912,7 +4923,7 @@
         <v>2499</v>
       </c>
       <c r="G59" s="3">
-        <f>(F59+1)/(E59-D59)*1000</f>
+        <f t="shared" si="1"/>
         <v>179.23716661887011</v>
       </c>
     </row>
@@ -4936,7 +4947,7 @@
         <v>2499</v>
       </c>
       <c r="G60" s="3">
-        <f>(F60+1)/(E60-D60)*1000</f>
+        <f t="shared" si="1"/>
         <v>178.85248247245673</v>
       </c>
     </row>
@@ -4960,7 +4971,7 @@
         <v>2499</v>
       </c>
       <c r="G61" s="3">
-        <f>(F61+1)/(E61-D61)*1000</f>
+        <f t="shared" si="1"/>
         <v>175.58645877229947</v>
       </c>
     </row>
@@ -4984,7 +4995,7 @@
         <v>2499</v>
       </c>
       <c r="G62" s="3">
-        <f>(F62+1)/(E62-D62)*1000</f>
+        <f t="shared" si="1"/>
         <v>175.52481920943623</v>
       </c>
     </row>
@@ -5008,7 +5019,7 @@
         <v>2499</v>
       </c>
       <c r="G63" s="3">
-        <f>(F63+1)/(E63-D63)*1000</f>
+        <f t="shared" si="1"/>
         <v>172.9984084146426</v>
       </c>
     </row>
@@ -5032,7 +5043,7 @@
         <v>2499</v>
       </c>
       <c r="G64" s="3">
-        <f>(F64+1)/(E64-D64)*1000</f>
+        <f t="shared" si="1"/>
         <v>170.10274205620195</v>
       </c>
     </row>
@@ -5056,7 +5067,7 @@
         <v>2499</v>
       </c>
       <c r="G65" s="3">
-        <f>(F65+1)/(E65-D65)*1000</f>
+        <f t="shared" ref="G65:G96" si="2">(F65+1)/(E65-D65)*1000</f>
         <v>163.78406708595389</v>
       </c>
     </row>
@@ -5080,7 +5091,7 @@
         <v>2499</v>
       </c>
       <c r="G66" s="3">
-        <f>(F66+1)/(E66-D66)*1000</f>
+        <f t="shared" si="2"/>
         <v>163.78406708595389</v>
       </c>
     </row>
@@ -5104,7 +5115,7 @@
         <v>2499</v>
       </c>
       <c r="G67" s="3">
-        <f>(F67+1)/(E67-D67)*1000</f>
+        <f t="shared" si="2"/>
         <v>162.14813853936957</v>
       </c>
     </row>
@@ -5128,7 +5139,7 @@
         <v>2499</v>
       </c>
       <c r="G68" s="3">
-        <f>(F68+1)/(E68-D68)*1000</f>
+        <f t="shared" si="2"/>
         <v>159.65259595121017</v>
       </c>
     </row>
@@ -5152,7 +5163,7 @@
         <v>2499</v>
       </c>
       <c r="G69" s="3">
-        <f>(F69+1)/(E69-D69)*1000</f>
+        <f t="shared" si="2"/>
         <v>156.58273831892771</v>
       </c>
     </row>
@@ -5176,7 +5187,7 @@
         <v>2499</v>
       </c>
       <c r="G70" s="3">
-        <f>(F70+1)/(E70-D70)*1000</f>
+        <f t="shared" si="2"/>
         <v>153.91245459582589</v>
       </c>
     </row>
@@ -5200,7 +5211,7 @@
         <v>2499</v>
       </c>
       <c r="G71" s="3">
-        <f>(F71+1)/(E71-D71)*1000</f>
+        <f t="shared" si="2"/>
         <v>152.54133870278847</v>
       </c>
     </row>
@@ -5224,7 +5235,7 @@
         <v>2499</v>
       </c>
       <c r="G72" s="3">
-        <f>(F72+1)/(E72-D72)*1000</f>
+        <f t="shared" si="2"/>
         <v>147.78907543154409</v>
       </c>
     </row>
@@ -5248,7 +5259,7 @@
         <v>2499</v>
       </c>
       <c r="G73" s="3">
-        <f>(F73+1)/(E73-D73)*1000</f>
+        <f t="shared" si="2"/>
         <v>143.20082483675105</v>
       </c>
     </row>
@@ -5272,7 +5283,7 @@
         <v>2499</v>
       </c>
       <c r="G74" s="3">
-        <f>(F74+1)/(E74-D74)*1000</f>
+        <f t="shared" si="2"/>
         <v>140.68655036578502</v>
       </c>
     </row>
@@ -5296,7 +5307,7 @@
         <v>2499</v>
       </c>
       <c r="G75" s="3">
-        <f>(F75+1)/(E75-D75)*1000</f>
+        <f t="shared" si="2"/>
         <v>139.71163518497821</v>
       </c>
     </row>
@@ -5320,7 +5331,7 @@
         <v>2499</v>
       </c>
       <c r="G76" s="3">
-        <f>(F76+1)/(E76-D76)*1000</f>
+        <f t="shared" si="2"/>
         <v>138.96609227348529</v>
       </c>
     </row>
@@ -5344,7 +5355,7 @@
         <v>2499</v>
       </c>
       <c r="G77" s="3">
-        <f>(F77+1)/(E77-D77)*1000</f>
+        <f t="shared" si="2"/>
         <v>136.03961473581109</v>
       </c>
     </row>
@@ -5368,7 +5379,7 @@
         <v>2499</v>
       </c>
       <c r="G78" s="3">
-        <f>(F78+1)/(E78-D78)*1000</f>
+        <f t="shared" si="2"/>
         <v>134.85812924803105</v>
       </c>
     </row>
@@ -5392,7 +5403,7 @@
         <v>2499</v>
       </c>
       <c r="G79" s="3">
-        <f>(F79+1)/(E79-D79)*1000</f>
+        <f t="shared" si="2"/>
         <v>134.80722566729577</v>
       </c>
     </row>
@@ -5416,7 +5427,7 @@
         <v>2499</v>
       </c>
       <c r="G80" s="3">
-        <f>(F80+1)/(E80-D80)*1000</f>
+        <f t="shared" si="2"/>
         <v>128.06720967163568</v>
       </c>
     </row>
@@ -5440,7 +5451,7 @@
         <v>2499</v>
       </c>
       <c r="G81" s="3">
-        <f>(F81+1)/(E81-D81)*1000</f>
+        <f t="shared" si="2"/>
         <v>126.8713524486171</v>
       </c>
     </row>
@@ -5464,7 +5475,7 @@
         <v>2499</v>
       </c>
       <c r="G82" s="3">
-        <f>(F82+1)/(E82-D82)*1000</f>
+        <f t="shared" si="2"/>
         <v>125.42644992976118</v>
       </c>
     </row>
@@ -5488,7 +5499,7 @@
         <v>2499</v>
       </c>
       <c r="G83" s="3">
-        <f>(F83+1)/(E83-D83)*1000</f>
+        <f t="shared" si="2"/>
         <v>125.31956489047069</v>
       </c>
     </row>
@@ -5512,7 +5523,7 @@
         <v>2499</v>
       </c>
       <c r="G84" s="3">
-        <f>(F84+1)/(E84-D84)*1000</f>
+        <f t="shared" si="2"/>
         <v>125.11886291977378</v>
       </c>
     </row>
@@ -5536,7 +5547,7 @@
         <v>2499</v>
       </c>
       <c r="G85" s="3">
-        <f>(F85+1)/(E85-D85)*1000</f>
+        <f t="shared" si="2"/>
         <v>124.83147750536776</v>
       </c>
     </row>
@@ -5560,7 +5571,7 @@
         <v>2499</v>
       </c>
       <c r="G86" s="3">
-        <f>(F86+1)/(E86-D86)*1000</f>
+        <f t="shared" si="2"/>
         <v>124.65719272001995</v>
       </c>
     </row>
@@ -5584,7 +5595,7 @@
         <v>2499</v>
       </c>
       <c r="G87" s="3">
-        <f>(F87+1)/(E87-D87)*1000</f>
+        <f t="shared" si="2"/>
         <v>124.38429772625503</v>
       </c>
     </row>
@@ -5608,7 +5619,7 @@
         <v>2499</v>
       </c>
       <c r="G88" s="3">
-        <f>(F88+1)/(E88-D88)*1000</f>
+        <f t="shared" si="2"/>
         <v>123.82980831145673</v>
       </c>
     </row>
@@ -5632,7 +5643,7 @@
         <v>2499</v>
       </c>
       <c r="G89" s="3">
-        <f>(F89+1)/(E89-D89)*1000</f>
+        <f t="shared" si="2"/>
         <v>122.64521193092621</v>
       </c>
     </row>
@@ -5656,7 +5667,7 @@
         <v>2499</v>
       </c>
       <c r="G90" s="3">
-        <f>(F90+1)/(E90-D90)*1000</f>
+        <f t="shared" si="2"/>
         <v>122.56704417316271</v>
       </c>
     </row>
@@ -5680,7 +5691,7 @@
         <v>2499</v>
       </c>
       <c r="G91" s="3">
-        <f>(F91+1)/(E91-D91)*1000</f>
+        <f t="shared" si="2"/>
         <v>118.52835198179405</v>
       </c>
     </row>
@@ -5704,7 +5715,7 @@
         <v>2499</v>
       </c>
       <c r="G92" s="3">
-        <f>(F92+1)/(E92-D92)*1000</f>
+        <f t="shared" si="2"/>
         <v>117.24978895037989</v>
       </c>
     </row>
@@ -5728,7 +5739,7 @@
         <v>2499</v>
       </c>
       <c r="G93" s="3">
-        <f>(F93+1)/(E93-D93)*1000</f>
+        <f t="shared" si="2"/>
         <v>113.73976342129208</v>
       </c>
     </row>
@@ -5752,7 +5763,7 @@
         <v>2499</v>
       </c>
       <c r="G94" s="3">
-        <f>(F94+1)/(E94-D94)*1000</f>
+        <f t="shared" si="2"/>
         <v>113.12729082763926</v>
       </c>
     </row>
@@ -5776,7 +5787,7 @@
         <v>2499</v>
       </c>
       <c r="G95" s="3">
-        <f>(F95+1)/(E95-D95)*1000</f>
+        <f t="shared" si="2"/>
         <v>111.43302874972142</v>
       </c>
     </row>
@@ -5800,7 +5811,7 @@
         <v>2499</v>
       </c>
       <c r="G96" s="3">
-        <f>(F96+1)/(E96-D96)*1000</f>
+        <f t="shared" si="2"/>
         <v>111.22480758108289</v>
       </c>
     </row>
@@ -5824,7 +5835,7 @@
         <v>2499</v>
       </c>
       <c r="G97" s="3">
-        <f>(F97+1)/(E97-D97)*1000</f>
+        <f t="shared" ref="G97:G128" si="3">(F97+1)/(E97-D97)*1000</f>
         <v>110.45818053285026</v>
       </c>
     </row>
@@ -5848,7 +5859,7 @@
         <v>2499</v>
       </c>
       <c r="G98" s="3">
-        <f>(F98+1)/(E98-D98)*1000</f>
+        <f t="shared" si="3"/>
         <v>110.22927689594356</v>
       </c>
     </row>
@@ -5872,7 +5883,7 @@
         <v>2499</v>
       </c>
       <c r="G99" s="3">
-        <f>(F99+1)/(E99-D99)*1000</f>
+        <f t="shared" si="3"/>
         <v>110.00616034497932</v>
       </c>
     </row>
@@ -5896,7 +5907,7 @@
         <v>2499</v>
       </c>
       <c r="G100" s="3">
-        <f>(F100+1)/(E100-D100)*1000</f>
+        <f t="shared" si="3"/>
         <v>108.89450300548827</v>
       </c>
     </row>
@@ -5920,7 +5931,7 @@
         <v>2499</v>
       </c>
       <c r="G101" s="3">
-        <f>(F101+1)/(E101-D101)*1000</f>
+        <f t="shared" si="3"/>
         <v>107.88417554913045</v>
       </c>
     </row>
@@ -5944,7 +5955,7 @@
         <v>2499</v>
       </c>
       <c r="G102" s="3">
-        <f>(F102+1)/(E102-D102)*1000</f>
+        <f t="shared" si="3"/>
         <v>105.05084460879065</v>
       </c>
     </row>
@@ -5968,7 +5979,7 @@
         <v>2499</v>
       </c>
       <c r="G103" s="3">
-        <f>(F103+1)/(E103-D103)*1000</f>
+        <f t="shared" si="3"/>
         <v>104.07560051621498</v>
       </c>
     </row>
@@ -5992,7 +6003,7 @@
         <v>2499</v>
       </c>
       <c r="G104" s="3">
-        <f>(F104+1)/(E104-D104)*1000</f>
+        <f t="shared" si="3"/>
         <v>102.65675686773703</v>
       </c>
     </row>
@@ -6016,7 +6027,7 @@
         <v>2499</v>
       </c>
       <c r="G105" s="3">
-        <f>(F105+1)/(E105-D105)*1000</f>
+        <f t="shared" si="3"/>
         <v>99.988001439827229</v>
       </c>
     </row>
@@ -6040,7 +6051,7 @@
         <v>2499</v>
       </c>
       <c r="G106" s="3">
-        <f>(F106+1)/(E106-D106)*1000</f>
+        <f t="shared" si="3"/>
         <v>93.089067619898714</v>
       </c>
     </row>
@@ -6064,7 +6075,7 @@
         <v>2499</v>
       </c>
       <c r="G107" s="3">
-        <f>(F107+1)/(E107-D107)*1000</f>
+        <f t="shared" si="3"/>
         <v>92.681841773559725</v>
       </c>
     </row>
@@ -6088,7 +6099,7 @@
         <v>2499</v>
       </c>
       <c r="G108" s="3">
-        <f>(F108+1)/(E108-D108)*1000</f>
+        <f t="shared" si="3"/>
         <v>89.378284651960954</v>
       </c>
     </row>
@@ -6112,7 +6123,7 @@
         <v>2499</v>
       </c>
       <c r="G109" s="3">
-        <f>(F109+1)/(E109-D109)*1000</f>
+        <f t="shared" si="3"/>
         <v>87.126228479821577</v>
       </c>
     </row>
@@ -6136,7 +6147,7 @@
         <v>2499</v>
       </c>
       <c r="G110" s="3">
-        <f>(F110+1)/(E110-D110)*1000</f>
+        <f t="shared" si="3"/>
         <v>85.231146870312287</v>
       </c>
     </row>
@@ -6160,7 +6171,7 @@
         <v>2499</v>
       </c>
       <c r="G111" s="3">
-        <f>(F111+1)/(E111-D111)*1000</f>
+        <f t="shared" si="3"/>
         <v>82.641896135664936</v>
       </c>
     </row>
@@ -6184,7 +6195,7 @@
         <v>2499</v>
       </c>
       <c r="G112" s="3">
-        <f>(F112+1)/(E112-D112)*1000</f>
+        <f t="shared" si="3"/>
         <v>81.977964323189923</v>
       </c>
     </row>
@@ -6208,7 +6219,7 @@
         <v>2499</v>
       </c>
       <c r="G113" s="3">
-        <f>(F113+1)/(E113-D113)*1000</f>
+        <f t="shared" si="3"/>
         <v>80.238790640947471</v>
       </c>
     </row>
@@ -6232,7 +6243,7 @@
         <v>2499</v>
       </c>
       <c r="G114" s="3">
-        <f>(F114+1)/(E114-D114)*1000</f>
+        <f t="shared" si="3"/>
         <v>79.473567091585352</v>
       </c>
     </row>
@@ -6256,7 +6267,7 @@
         <v>2499</v>
       </c>
       <c r="G115" s="3">
-        <f>(F115+1)/(E115-D115)*1000</f>
+        <f t="shared" si="3"/>
         <v>77.179550506297844</v>
       </c>
     </row>
@@ -6280,7 +6291,7 @@
         <v>2499</v>
       </c>
       <c r="G116" s="3">
-        <f>(F116+1)/(E116-D116)*1000</f>
+        <f t="shared" si="3"/>
         <v>71.408169094544419</v>
       </c>
     </row>
@@ -6304,7 +6315,7 @@
         <v>2499</v>
       </c>
       <c r="G117" s="3">
-        <f>(F117+1)/(E117-D117)*1000</f>
+        <f t="shared" si="3"/>
         <v>64.557779212395104</v>
       </c>
     </row>
@@ -6328,7 +6339,7 @@
         <v>2499</v>
       </c>
       <c r="G118" s="3">
-        <f>(F118+1)/(E118-D118)*1000</f>
+        <f t="shared" si="3"/>
         <v>62.991332392662777</v>
       </c>
     </row>
@@ -6352,7 +6363,7 @@
         <v>2499</v>
       </c>
       <c r="G119" s="3">
-        <f>(F119+1)/(E119-D119)*1000</f>
+        <f t="shared" si="3"/>
         <v>60.50631685948013</v>
       </c>
     </row>
@@ -6376,7 +6387,7 @@
         <v>2499</v>
       </c>
       <c r="G120" s="3">
-        <f>(F120+1)/(E120-D120)*1000</f>
+        <f t="shared" si="3"/>
         <v>60.414199753510061</v>
       </c>
     </row>
@@ -6400,7 +6411,7 @@
         <v>2499</v>
       </c>
       <c r="G121" s="3">
-        <f>(F121+1)/(E121-D121)*1000</f>
+        <f t="shared" si="3"/>
         <v>58.349865795308673</v>
       </c>
     </row>
@@ -6424,7 +6435,7 @@
         <v>2499</v>
       </c>
       <c r="G122" s="3">
-        <f>(F122+1)/(E122-D122)*1000</f>
+        <f t="shared" si="3"/>
         <v>58.012716387432128</v>
       </c>
     </row>
@@ -6448,7 +6459,7 @@
         <v>2499</v>
       </c>
       <c r="G123" s="3">
-        <f>(F123+1)/(E123-D123)*1000</f>
+        <f t="shared" si="3"/>
         <v>56.222731974992129</v>
       </c>
     </row>
@@ -6472,7 +6483,7 @@
         <v>2499</v>
       </c>
       <c r="G124" s="3">
-        <f>(F124+1)/(E124-D124)*1000</f>
+        <f t="shared" si="3"/>
         <v>44.408917310595967</v>
       </c>
     </row>
@@ -6496,7 +6507,7 @@
         <v>2499</v>
       </c>
       <c r="G125" s="3">
-        <f>(F125+1)/(E125-D125)*1000</f>
+        <f t="shared" si="3"/>
         <v>43.715464782821577</v>
       </c>
     </row>
@@ -6520,7 +6531,7 @@
         <v>2499</v>
       </c>
       <c r="G126" s="3">
-        <f>(F126+1)/(E126-D126)*1000</f>
+        <f t="shared" si="3"/>
         <v>40.416451112260738</v>
       </c>
     </row>
@@ -6544,7 +6555,7 @@
         <v>2499</v>
       </c>
       <c r="G127" s="3">
-        <f>(F127+1)/(E127-D127)*1000</f>
+        <f t="shared" si="3"/>
         <v>31.089500453906705</v>
       </c>
     </row>
@@ -9621,15 +9632,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -9649,11 +9660,14 @@
         <v>2499</v>
       </c>
       <c r="G1" s="2">
-        <f t="shared" ref="G1:G32" si="0">(F1+1)/(E1-D1)*1000</f>
+        <f>(F1+1)/(E1-D1)*1000</f>
         <v>119.56001912960305</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32</v>
       </c>
@@ -9672,12 +9686,12 @@
       <c r="F2">
         <v>2499</v>
       </c>
-      <c r="G2" s="3">
-        <f t="shared" si="0"/>
+      <c r="G2" s="1">
+        <f>(F2+1)/(E2-D2)*1000</f>
         <v>44.754744002864307</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
@@ -9696,12 +9710,12 @@
       <c r="F3">
         <v>2499</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" si="0"/>
+      <c r="G3" s="1">
+        <f>(F3+1)/(E3-D3)*1000</f>
         <v>44.580762509361961</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>32</v>
       </c>
@@ -9720,12 +9734,12 @@
       <c r="F4">
         <v>2499</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
+      <c r="G4" s="1">
+        <f>(F4+1)/(E4-D4)*1000</f>
         <v>44.228217602830604</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -9744,12 +9758,12 @@
       <c r="F5">
         <v>2499</v>
       </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
+      <c r="G5" s="1">
+        <f>(F5+1)/(E5-D5)*1000</f>
         <v>44.203193238679567</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -9768,12 +9782,12 @@
       <c r="F6">
         <v>2499</v>
       </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
+      <c r="G6" s="1">
+        <f>(F6+1)/(E6-D6)*1000</f>
         <v>44.172733055339599</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -9792,12 +9806,12 @@
       <c r="F7">
         <v>2499</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
+      <c r="G7" s="1">
+        <f>(F7+1)/(E7-D7)*1000</f>
         <v>44.104156375696846</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32</v>
       </c>
@@ -9816,12 +9830,12 @@
       <c r="F8">
         <v>2499</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
+      <c r="G8" s="1">
+        <f>(F8+1)/(E8-D8)*1000</f>
         <v>43.959135587557803</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32</v>
       </c>
@@ -9840,12 +9854,12 @@
       <c r="F9">
         <v>2499</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
+      <c r="G9" s="1">
+        <f>(F9+1)/(E9-D9)*1000</f>
         <v>43.718522663682144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32</v>
       </c>
@@ -9864,12 +9878,12 @@
       <c r="F10">
         <v>2499</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
+      <c r="G10" s="1">
+        <f>(F10+1)/(E10-D10)*1000</f>
         <v>43.655921489190796</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -9888,12 +9902,12 @@
       <c r="F11">
         <v>2499</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
+      <c r="G11" s="1">
+        <f>(F11+1)/(E11-D11)*1000</f>
         <v>43.626210627344911</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32</v>
       </c>
@@ -9912,105 +9926,108 @@
       <c r="F12">
         <v>2499</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
+      <c r="G12" s="1">
+        <f>(F12+1)/(E12-D12)*1000</f>
         <v>39.176356285454602</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="D13">
+        <v>5287017</v>
+      </c>
+      <c r="E13">
+        <v>5362464</v>
+      </c>
+      <c r="F13">
+        <v>2499</v>
+      </c>
+      <c r="G13" s="2">
+        <f>(F13+1)/(E13-D13)*1000</f>
+        <v>33.135843704852412</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>256</v>
+      </c>
+      <c r="D14">
         <v>39974</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>128251</v>
       </c>
-      <c r="F13">
-        <v>2499</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
+      <c r="F14">
+        <v>2499</v>
+      </c>
+      <c r="G14" s="3">
+        <f>(F14+1)/(E14-D14)*1000</f>
         <v>28.319947438177554</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>256</v>
-      </c>
-      <c r="C14">
-        <v>128</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15">
+        <v>128</v>
+      </c>
+      <c r="D15">
         <v>40008</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>137341</v>
       </c>
-      <c r="F14">
-        <v>2499</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
+      <c r="F15">
+        <v>2499</v>
+      </c>
+      <c r="G15" s="3">
+        <f>(F15+1)/(E15-D15)*1000</f>
         <v>25.685019469244757</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
         <v>45282</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>144473</v>
       </c>
-      <c r="F15">
-        <v>2499</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
+      <c r="F16">
+        <v>2499</v>
+      </c>
+      <c r="G16" s="3">
+        <f>(F16+1)/(E16-D16)*1000</f>
         <v>25.203899547337965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>256</v>
-      </c>
-      <c r="C16">
-        <v>512</v>
-      </c>
-      <c r="D16">
-        <v>38563</v>
-      </c>
-      <c r="E16">
-        <v>138122</v>
-      </c>
-      <c r="F16">
-        <v>2499</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>25.110738356150623</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -10018,23 +10035,23 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="D17">
-        <v>44932</v>
+        <v>38563</v>
       </c>
       <c r="E17">
-        <v>145173</v>
+        <v>138122</v>
       </c>
       <c r="F17">
         <v>2499</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>24.939894853403295</v>
+        <f>(F17+1)/(E17-D17)*1000</f>
+        <v>25.110738356150623</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10042,23 +10059,23 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>41252</v>
+        <v>44932</v>
       </c>
       <c r="E18">
-        <v>141837</v>
+        <v>145173</v>
       </c>
       <c r="F18">
         <v>2499</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>24.854600586568573</v>
+        <f>(F18+1)/(E18-D18)*1000</f>
+        <v>24.939894853403295</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10066,23 +10083,23 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>40603</v>
+        <v>41252</v>
       </c>
       <c r="E19">
-        <v>141537</v>
+        <v>141837</v>
       </c>
       <c r="F19">
         <v>2499</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>24.768660708978146</v>
+        <f>(F19+1)/(E19-D19)*1000</f>
+        <v>24.854600586568573</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10090,23 +10107,23 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C20">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>40506</v>
+        <v>40603</v>
       </c>
       <c r="E20">
-        <v>141592</v>
+        <v>141537</v>
       </c>
       <c r="F20">
         <v>2499</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>24.731416813406408</v>
+        <f>(F20+1)/(E20-D20)*1000</f>
+        <v>24.768660708978146</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10114,23 +10131,23 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="D21">
-        <v>45309</v>
+        <v>40506</v>
       </c>
       <c r="E21">
-        <v>146505</v>
+        <v>141592</v>
       </c>
       <c r="F21">
         <v>2499</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>24.704533776038577</v>
+        <f>(F21+1)/(E21-D21)*1000</f>
+        <v>24.731416813406408</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10141,20 +10158,20 @@
         <v>128</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>39594</v>
+        <v>45309</v>
       </c>
       <c r="E22">
-        <v>140845</v>
+        <v>146505</v>
       </c>
       <c r="F22">
         <v>2499</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>24.691114161835436</v>
+        <f>(F22+1)/(E22-D22)*1000</f>
+        <v>24.704533776038577</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10162,23 +10179,23 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>39094</v>
+        <v>39594</v>
       </c>
       <c r="E23">
-        <v>140520</v>
+        <v>140845</v>
       </c>
       <c r="F23">
         <v>2499</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>24.648512215802654</v>
+        <f>(F23+1)/(E23-D23)*1000</f>
+        <v>24.691114161835436</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10186,23 +10203,23 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>41123</v>
+        <v>39094</v>
       </c>
       <c r="E24">
-        <v>142901</v>
+        <v>140520</v>
       </c>
       <c r="F24">
         <v>2499</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
-        <v>24.563265145709288</v>
+        <f>(F24+1)/(E24-D24)*1000</f>
+        <v>24.648512215802654</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -10210,23 +10227,23 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>42360</v>
+        <v>41123</v>
       </c>
       <c r="E25">
-        <v>144506</v>
+        <v>142901</v>
       </c>
       <c r="F25">
         <v>2499</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
-        <v>24.474771405635071</v>
+        <f>(F25+1)/(E25-D25)*1000</f>
+        <v>24.563265145709288</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10234,23 +10251,23 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>45336</v>
+        <v>42360</v>
       </c>
       <c r="E26">
-        <v>147543</v>
+        <v>144506</v>
       </c>
       <c r="F26">
         <v>2499</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="0"/>
-        <v>24.460164176621952</v>
+        <f>(F26+1)/(E26-D26)*1000</f>
+        <v>24.474771405635071</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10258,23 +10275,23 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>41927</v>
+        <v>45336</v>
       </c>
       <c r="E27">
-        <v>144413</v>
+        <v>147543</v>
       </c>
       <c r="F27">
         <v>2499</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="0"/>
-        <v>24.393575707901569</v>
+        <f>(F27+1)/(E27-D27)*1000</f>
+        <v>24.460164176621952</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -10282,23 +10299,23 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="D28">
-        <v>42618</v>
+        <v>41927</v>
       </c>
       <c r="E28">
-        <v>145149</v>
+        <v>144413</v>
       </c>
       <c r="F28">
         <v>2499</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
-        <v>24.382869571154092</v>
+        <f>(F28+1)/(E28-D28)*1000</f>
+        <v>24.393575707901569</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -10306,23 +10323,23 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C29">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>39803</v>
+        <v>42618</v>
       </c>
       <c r="E29">
-        <v>142411</v>
+        <v>145149</v>
       </c>
       <c r="F29">
         <v>2499</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="0"/>
-        <v>24.364571963199751</v>
+        <f>(F29+1)/(E29-D29)*1000</f>
+        <v>24.382869571154092</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10330,23 +10347,23 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C30">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="D30">
-        <v>40190</v>
+        <v>39803</v>
       </c>
       <c r="E30">
-        <v>143055</v>
+        <v>142411</v>
       </c>
       <c r="F30">
         <v>2499</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="0"/>
-        <v>24.303699022991299</v>
+        <f>(F30+1)/(E30-D30)*1000</f>
+        <v>24.364571963199751</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -10354,23 +10371,23 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C31">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="D31">
-        <v>47083</v>
+        <v>40190</v>
       </c>
       <c r="E31">
-        <v>150161</v>
+        <v>143055</v>
       </c>
       <c r="F31">
         <v>2499</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="0"/>
-        <v>24.253477948737849</v>
+        <f>(F31+1)/(E31-D31)*1000</f>
+        <v>24.303699022991299</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10378,23 +10395,23 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="D32">
-        <v>40058</v>
+        <v>47083</v>
       </c>
       <c r="E32">
-        <v>143186</v>
+        <v>150161</v>
       </c>
       <c r="F32">
         <v>2499</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="0"/>
-        <v>24.241719028779769</v>
+        <f>(F32+1)/(E32-D32)*1000</f>
+        <v>24.253477948737849</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -10402,23 +10419,23 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D33">
-        <v>42840</v>
+        <v>40058</v>
       </c>
       <c r="E33">
-        <v>146226</v>
+        <v>143186</v>
       </c>
       <c r="F33">
         <v>2499</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" ref="G33:G64" si="1">(F33+1)/(E33-D33)*1000</f>
-        <v>24.181223763372216</v>
+        <f>(F33+1)/(E33-D33)*1000</f>
+        <v>24.241719028779769</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10426,23 +10443,23 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="D34">
-        <v>39821</v>
+        <v>42840</v>
       </c>
       <c r="E34">
-        <v>143227</v>
+        <v>146226</v>
       </c>
       <c r="F34">
         <v>2499</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="1"/>
-        <v>24.176546815465255</v>
+        <f>(F34+1)/(E34-D34)*1000</f>
+        <v>24.181223763372216</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -10450,23 +10467,23 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>64</v>
       </c>
       <c r="D35">
-        <v>41890</v>
+        <v>39821</v>
       </c>
       <c r="E35">
-        <v>145563</v>
+        <v>143227</v>
       </c>
       <c r="F35">
         <v>2499</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="1"/>
-        <v>24.114282407184128</v>
+        <f>(F35+1)/(E35-D35)*1000</f>
+        <v>24.176546815465255</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10474,23 +10491,23 @@
         <v>32</v>
       </c>
       <c r="B36">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D36">
-        <v>40985</v>
+        <v>41890</v>
       </c>
       <c r="E36">
-        <v>144781</v>
+        <v>145563</v>
       </c>
       <c r="F36">
         <v>2499</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="1"/>
-        <v>24.085706578288178</v>
+        <f>(F36+1)/(E36-D36)*1000</f>
+        <v>24.114282407184128</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -10498,23 +10515,23 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>41132</v>
+        <v>40985</v>
       </c>
       <c r="E37">
-        <v>145147</v>
+        <v>144781</v>
       </c>
       <c r="F37">
         <v>2499</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="1"/>
-        <v>24.034994952651058</v>
+        <f>(F37+1)/(E37-D37)*1000</f>
+        <v>24.085706578288178</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -10522,23 +10539,23 @@
         <v>32</v>
       </c>
       <c r="B38">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>44227</v>
+        <v>41132</v>
       </c>
       <c r="E38">
-        <v>148437</v>
+        <v>145147</v>
       </c>
       <c r="F38">
         <v>2499</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="1"/>
-        <v>23.990020151616928</v>
+        <f>(F38+1)/(E38-D38)*1000</f>
+        <v>24.034994952651058</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -10546,23 +10563,23 @@
         <v>32</v>
       </c>
       <c r="B39">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C39">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>42028</v>
+        <v>44227</v>
       </c>
       <c r="E39">
-        <v>146542</v>
+        <v>148437</v>
       </c>
       <c r="F39">
         <v>2499</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="1"/>
-        <v>23.920240350575042</v>
+        <f>(F39+1)/(E39-D39)*1000</f>
+        <v>23.990020151616928</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -10570,23 +10587,23 @@
         <v>32</v>
       </c>
       <c r="B40">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D40">
-        <v>39751</v>
+        <v>42028</v>
       </c>
       <c r="E40">
-        <v>144788</v>
+        <v>146542</v>
       </c>
       <c r="F40">
         <v>2499</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="1"/>
-        <v>23.801136742290812</v>
+        <f>(F40+1)/(E40-D40)*1000</f>
+        <v>23.920240350575042</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -10594,23 +10611,23 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D41">
-        <v>44070</v>
+        <v>39751</v>
       </c>
       <c r="E41">
-        <v>149406</v>
+        <v>144788</v>
       </c>
       <c r="F41">
         <v>2499</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="1"/>
-        <v>23.733576365155312</v>
+        <f>(F41+1)/(E41-D41)*1000</f>
+        <v>23.801136742290812</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -10618,23 +10635,23 @@
         <v>32</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C42">
-        <v>512</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>43388</v>
+        <v>44070</v>
       </c>
       <c r="E42">
-        <v>149298</v>
+        <v>149406</v>
       </c>
       <c r="F42">
         <v>2499</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="1"/>
-        <v>23.604947597016334</v>
+        <f>(F42+1)/(E42-D42)*1000</f>
+        <v>23.733576365155312</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -10642,47 +10659,47 @@
         <v>32</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D43">
-        <v>44802</v>
+        <v>43388</v>
       </c>
       <c r="E43">
-        <v>153303</v>
+        <v>149298</v>
       </c>
       <c r="F43">
         <v>2499</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="1"/>
-        <v>23.041262292513434</v>
+        <f>(F43+1)/(E43-D43)*1000</f>
+        <v>23.604947597016334</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B44">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>256</v>
       </c>
       <c r="D44">
-        <v>95182</v>
+        <v>44802</v>
       </c>
       <c r="E44">
-        <v>206030</v>
+        <v>153303</v>
       </c>
       <c r="F44">
         <v>2499</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="1"/>
-        <v>22.553406466512701</v>
+        <f>(F44+1)/(E44-D44)*1000</f>
+        <v>23.041262292513434</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -10690,23 +10707,23 @@
         <v>16</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C45">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="D45">
-        <v>100916</v>
+        <v>95182</v>
       </c>
       <c r="E45">
-        <v>212161</v>
+        <v>206030</v>
       </c>
       <c r="F45">
         <v>2499</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="1"/>
-        <v>22.472920131241853</v>
+        <f>(F45+1)/(E45-D45)*1000</f>
+        <v>22.553406466512701</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -10714,23 +10731,23 @@
         <v>16</v>
       </c>
       <c r="B46">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D46">
-        <v>95117</v>
+        <v>100916</v>
       </c>
       <c r="E46">
-        <v>206697</v>
+        <v>212161</v>
       </c>
       <c r="F46">
         <v>2499</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="1"/>
-        <v>22.405449005198065</v>
+        <f>(F46+1)/(E46-D46)*1000</f>
+        <v>22.472920131241853</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -10738,23 +10755,23 @@
         <v>16</v>
       </c>
       <c r="B47">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C47">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>102029</v>
+        <v>95117</v>
       </c>
       <c r="E47">
-        <v>214035</v>
+        <v>206697</v>
       </c>
       <c r="F47">
         <v>2499</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="1"/>
-        <v>22.320232844669036</v>
+        <f>(F47+1)/(E47-D47)*1000</f>
+        <v>22.405449005198065</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -10762,23 +10779,23 @@
         <v>16</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C48">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>98535</v>
+        <v>102029</v>
       </c>
       <c r="E48">
-        <v>210556</v>
+        <v>214035</v>
       </c>
       <c r="F48">
         <v>2499</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="1"/>
-        <v>22.317244088162042</v>
+        <f>(F48+1)/(E48-D48)*1000</f>
+        <v>22.320232844669036</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -10786,23 +10803,23 @@
         <v>16</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D49">
-        <v>98588</v>
+        <v>98535</v>
       </c>
       <c r="E49">
-        <v>210990</v>
+        <v>210556</v>
       </c>
       <c r="F49">
         <v>2499</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="1"/>
-        <v>22.241597124606322</v>
+        <f>(F49+1)/(E49-D49)*1000</f>
+        <v>22.317244088162042</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -10810,23 +10827,23 @@
         <v>16</v>
       </c>
       <c r="B50">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D50">
-        <v>94699</v>
+        <v>98588</v>
       </c>
       <c r="E50">
-        <v>207117</v>
+        <v>210990</v>
       </c>
       <c r="F50">
         <v>2499</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="1"/>
-        <v>22.238431567898381</v>
+        <f>(F50+1)/(E50-D50)*1000</f>
+        <v>22.241597124606322</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -10834,23 +10851,23 @@
         <v>16</v>
       </c>
       <c r="B51">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C51">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="D51">
-        <v>128254</v>
+        <v>94699</v>
       </c>
       <c r="E51">
-        <v>241204</v>
+        <v>207117</v>
       </c>
       <c r="F51">
         <v>2499</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="1"/>
-        <v>22.133687472332891</v>
+        <f>(F51+1)/(E51-D51)*1000</f>
+        <v>22.238431567898381</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -10861,20 +10878,20 @@
         <v>32</v>
       </c>
       <c r="C52">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D52">
-        <v>94536</v>
+        <v>128254</v>
       </c>
       <c r="E52">
-        <v>207635</v>
+        <v>241204</v>
       </c>
       <c r="F52">
         <v>2499</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="1"/>
-        <v>22.104527891493294</v>
+        <f>(F52+1)/(E52-D52)*1000</f>
+        <v>22.133687472332891</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -10882,23 +10899,23 @@
         <v>16</v>
       </c>
       <c r="B53">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="D53">
-        <v>96208</v>
+        <v>94536</v>
       </c>
       <c r="E53">
-        <v>209516</v>
+        <v>207635</v>
       </c>
       <c r="F53">
         <v>2499</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="1"/>
-        <v>22.063755427683834</v>
+        <f>(F53+1)/(E53-D53)*1000</f>
+        <v>22.104527891493294</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -10906,23 +10923,23 @@
         <v>16</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C54">
-        <v>512</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>99293</v>
+        <v>96208</v>
       </c>
       <c r="E54">
-        <v>213266</v>
+        <v>209516</v>
       </c>
       <c r="F54">
         <v>2499</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="1"/>
-        <v>21.935019697647689</v>
+        <f>(F54+1)/(E54-D54)*1000</f>
+        <v>22.063755427683834</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -10933,20 +10950,20 @@
         <v>8</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="D55">
-        <v>99720</v>
+        <v>99293</v>
       </c>
       <c r="E55">
-        <v>213703</v>
+        <v>213266</v>
       </c>
       <c r="F55">
         <v>2499</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="1"/>
-        <v>21.93309528613916</v>
+        <f>(F55+1)/(E55-D55)*1000</f>
+        <v>21.935019697647689</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -10954,23 +10971,23 @@
         <v>16</v>
       </c>
       <c r="B56">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C56">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>142415</v>
+        <v>99720</v>
       </c>
       <c r="E56">
-        <v>291566</v>
+        <v>213703</v>
       </c>
       <c r="F56">
         <v>2499</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="1"/>
-        <v>16.761536965893626</v>
+        <f>(F56+1)/(E56-D56)*1000</f>
+        <v>21.93309528613916</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -10978,47 +10995,47 @@
         <v>16</v>
       </c>
       <c r="B57">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="D57">
-        <v>146508</v>
+        <v>142415</v>
       </c>
       <c r="E57">
-        <v>303716</v>
+        <v>291566</v>
       </c>
       <c r="F57">
         <v>2499</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="1"/>
-        <v>15.902498600580126</v>
+        <f>(F57+1)/(E57-D57)*1000</f>
+        <v>16.761536965893626</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B58">
         <v>128</v>
       </c>
       <c r="C58">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="D58">
-        <v>207120</v>
+        <v>146508</v>
       </c>
       <c r="E58">
-        <v>371778</v>
+        <v>303716</v>
       </c>
       <c r="F58">
         <v>2499</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="1"/>
-        <v>15.182985339309356</v>
+        <f>(F58+1)/(E58-D58)*1000</f>
+        <v>15.902498600580126</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -11026,23 +11043,23 @@
         <v>8</v>
       </c>
       <c r="B59">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C59">
         <v>128</v>
       </c>
       <c r="D59">
-        <v>291568</v>
+        <v>207120</v>
       </c>
       <c r="E59">
-        <v>456267</v>
+        <v>371778</v>
       </c>
       <c r="F59">
         <v>2499</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="1"/>
-        <v>15.179205702523998</v>
+        <f>(F59+1)/(E59-D59)*1000</f>
+        <v>15.182985339309356</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -11050,23 +11067,23 @@
         <v>8</v>
       </c>
       <c r="B60">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="D60">
-        <v>303719</v>
+        <v>291568</v>
       </c>
       <c r="E60">
-        <v>469071</v>
+        <v>456267</v>
       </c>
       <c r="F60">
         <v>2499</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="1"/>
-        <v>15.119260728627413</v>
+        <f>(F60+1)/(E60-D60)*1000</f>
+        <v>15.179205702523998</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -11074,71 +11091,71 @@
         <v>8</v>
       </c>
       <c r="B61">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C61">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>214038</v>
+        <v>303719</v>
       </c>
       <c r="E61">
-        <v>379554</v>
+        <v>469071</v>
       </c>
       <c r="F61">
         <v>2499</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="1"/>
-        <v>15.104279948766283</v>
+        <f>(F61+1)/(E61-D61)*1000</f>
+        <v>15.119260728627413</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D62">
-        <v>145151</v>
+        <v>214038</v>
       </c>
       <c r="E62">
-        <v>311792</v>
+        <v>379554</v>
       </c>
       <c r="F62">
         <v>2499</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="1"/>
-        <v>15.002310355794792</v>
+        <f>(F62+1)/(E62-D62)*1000</f>
+        <v>15.104279948766283</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C63">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>210993</v>
+        <v>145151</v>
       </c>
       <c r="E63">
-        <v>377690</v>
+        <v>311792</v>
       </c>
       <c r="F63">
         <v>2499</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="1"/>
-        <v>14.997270496769588</v>
+        <f>(F63+1)/(E63-D63)*1000</f>
+        <v>15.002310355794792</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -11146,23 +11163,23 @@
         <v>8</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>206699</v>
+        <v>210993</v>
       </c>
       <c r="E64">
-        <v>373433</v>
+        <v>377690</v>
       </c>
       <c r="F64">
         <v>2499</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="1"/>
-        <v>14.99394244725131</v>
+        <f>(F64+1)/(E64-D64)*1000</f>
+        <v>14.997270496769588</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11170,23 +11187,23 @@
         <v>8</v>
       </c>
       <c r="B65">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C65">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>241207</v>
+        <v>206699</v>
       </c>
       <c r="E65">
-        <v>408434</v>
+        <v>373433</v>
       </c>
       <c r="F65">
         <v>2499</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" ref="G65:G96" si="2">(F65+1)/(E65-D65)*1000</f>
-        <v>14.949738977557452</v>
+        <f>(F65+1)/(E65-D65)*1000</f>
+        <v>14.99394244725131</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11194,47 +11211,47 @@
         <v>8</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>256</v>
       </c>
       <c r="D66">
-        <v>329048</v>
+        <v>241207</v>
       </c>
       <c r="E66">
-        <v>497124</v>
+        <v>408434</v>
       </c>
       <c r="F66">
         <v>2499</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="2"/>
-        <v>14.87422356552988</v>
+        <f>(F66+1)/(E66-D66)*1000</f>
+        <v>14.949738977557452</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="D67">
-        <v>142903</v>
+        <v>329048</v>
       </c>
       <c r="E67">
-        <v>313830</v>
+        <v>497124</v>
       </c>
       <c r="F67">
         <v>2499</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="2"/>
-        <v>14.626126943080964</v>
+        <f>(F67+1)/(E67-D67)*1000</f>
+        <v>14.87422356552988</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -11242,23 +11259,23 @@
         <v>16</v>
       </c>
       <c r="B68">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>149408</v>
+        <v>142903</v>
       </c>
       <c r="E68">
-        <v>320434</v>
+        <v>313830</v>
       </c>
       <c r="F68">
         <v>2499</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="2"/>
-        <v>14.61766047267667</v>
+        <f>(F68+1)/(E68-D68)*1000</f>
+        <v>14.626126943080964</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -11266,23 +11283,23 @@
         <v>16</v>
       </c>
       <c r="B69">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C69">
         <v>8</v>
       </c>
       <c r="D69">
-        <v>145176</v>
+        <v>149408</v>
       </c>
       <c r="E69">
-        <v>316958</v>
+        <v>320434</v>
       </c>
       <c r="F69">
         <v>2499</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="2"/>
-        <v>14.553329219592273</v>
+        <f>(F69+1)/(E69-D69)*1000</f>
+        <v>14.61766047267667</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -11290,23 +11307,23 @@
         <v>16</v>
       </c>
       <c r="B70">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C70">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D70">
-        <v>140523</v>
+        <v>145176</v>
       </c>
       <c r="E70">
-        <v>312929</v>
+        <v>316958</v>
       </c>
       <c r="F70">
         <v>2499</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="2"/>
-        <v>14.50065542962542</v>
+        <f>(F70+1)/(E70-D70)*1000</f>
+        <v>14.553329219592273</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -11314,23 +11331,23 @@
         <v>16</v>
       </c>
       <c r="B71">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C71">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D71">
-        <v>140848</v>
+        <v>140523</v>
       </c>
       <c r="E71">
-        <v>313462</v>
+        <v>312929</v>
       </c>
       <c r="F71">
         <v>2499</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="2"/>
-        <v>14.483182128911908</v>
+        <f>(F71+1)/(E71-D71)*1000</f>
+        <v>14.50065542962542</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -11338,23 +11355,23 @@
         <v>16</v>
       </c>
       <c r="B72">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C72">
         <v>32</v>
       </c>
       <c r="D72">
-        <v>141541</v>
+        <v>140848</v>
       </c>
       <c r="E72">
-        <v>314264</v>
+        <v>313462</v>
       </c>
       <c r="F72">
         <v>2499</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="2"/>
-        <v>14.474042252624143</v>
+        <f>(F72+1)/(E72-D72)*1000</f>
+        <v>14.483182128911908</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -11362,23 +11379,23 @@
         <v>16</v>
       </c>
       <c r="B73">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C73">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D73">
-        <v>146971</v>
+        <v>141541</v>
       </c>
       <c r="E73">
-        <v>320004</v>
+        <v>314264</v>
       </c>
       <c r="F73">
         <v>2499</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="2"/>
-        <v>14.448111053960806</v>
+        <f>(F73+1)/(E73-D73)*1000</f>
+        <v>14.474042252624143</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -11386,23 +11403,23 @@
         <v>16</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C74">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D74">
-        <v>145565</v>
+        <v>146971</v>
       </c>
       <c r="E74">
-        <v>318870</v>
+        <v>320004</v>
       </c>
       <c r="F74">
         <v>2499</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="2"/>
-        <v>14.425434926863046</v>
+        <f>(F74+1)/(E74-D74)*1000</f>
+        <v>14.448111053960806</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -11413,20 +11430,20 @@
         <v>16</v>
       </c>
       <c r="C75">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D75">
-        <v>144510</v>
+        <v>145565</v>
       </c>
       <c r="E75">
-        <v>317983</v>
+        <v>318870</v>
       </c>
       <c r="F75">
         <v>2499</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="2"/>
-        <v>14.411464608325215</v>
+        <f>(F75+1)/(E75-D75)*1000</f>
+        <v>14.425434926863046</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -11434,23 +11451,23 @@
         <v>16</v>
       </c>
       <c r="B76">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D76">
-        <v>144791</v>
+        <v>144510</v>
       </c>
       <c r="E76">
-        <v>318403</v>
+        <v>317983</v>
       </c>
       <c r="F76">
         <v>2499</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="2"/>
-        <v>14.399926272377485</v>
+        <f>(F76+1)/(E76-D76)*1000</f>
+        <v>14.411464608325215</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -11458,23 +11475,23 @@
         <v>16</v>
       </c>
       <c r="B77">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C77">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="D77">
-        <v>143189</v>
+        <v>144791</v>
       </c>
       <c r="E77">
-        <v>317064</v>
+        <v>318403</v>
       </c>
       <c r="F77">
         <v>2499</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="2"/>
-        <v>14.378145219266715</v>
+        <f>(F77+1)/(E77-D77)*1000</f>
+        <v>14.399926272377485</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -11482,23 +11499,23 @@
         <v>16</v>
       </c>
       <c r="B78">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C78">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D78">
-        <v>144416</v>
+        <v>143189</v>
       </c>
       <c r="E78">
-        <v>319055</v>
+        <v>317064</v>
       </c>
       <c r="F78">
         <v>2499</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="2"/>
-        <v>14.315244590269069</v>
+        <f>(F78+1)/(E78-D78)*1000</f>
+        <v>14.378145219266715</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -11506,23 +11523,23 @@
         <v>16</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C79">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="D79">
-        <v>147546</v>
+        <v>144416</v>
       </c>
       <c r="E79">
-        <v>322381</v>
+        <v>319055</v>
       </c>
       <c r="F79">
         <v>2499</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="2"/>
-        <v>14.299196385163153</v>
+        <f>(F79+1)/(E79-D79)*1000</f>
+        <v>14.315244590269069</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -11530,23 +11547,23 @@
         <v>16</v>
       </c>
       <c r="B80">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="C80">
-        <v>512</v>
+        <v>16</v>
       </c>
       <c r="D80">
-        <v>138124</v>
+        <v>147546</v>
       </c>
       <c r="E80">
-        <v>313021</v>
+        <v>322381</v>
       </c>
       <c r="F80">
         <v>2499</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="2"/>
-        <v>14.294127400698697</v>
+        <f>(F80+1)/(E80-D80)*1000</f>
+        <v>14.299196385163153</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -11554,23 +11571,23 @@
         <v>16</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="C81">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="D81">
-        <v>150164</v>
+        <v>138124</v>
       </c>
       <c r="E81">
-        <v>325270</v>
+        <v>313021</v>
       </c>
       <c r="F81">
         <v>2499</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="2"/>
-        <v>14.277066462599796</v>
+        <f>(F81+1)/(E81-D81)*1000</f>
+        <v>14.294127400698697</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -11578,23 +11595,23 @@
         <v>16</v>
       </c>
       <c r="B82">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="C82">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D82">
-        <v>141841</v>
+        <v>150164</v>
       </c>
       <c r="E82">
-        <v>317205</v>
+        <v>325270</v>
       </c>
       <c r="F82">
         <v>2499</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="2"/>
-        <v>14.256061677425242</v>
+        <f>(F82+1)/(E82-D82)*1000</f>
+        <v>14.277066462599796</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -11602,23 +11619,23 @@
         <v>16</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="C83">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="D83">
-        <v>153306</v>
+        <v>141841</v>
       </c>
       <c r="E83">
-        <v>328689</v>
+        <v>317205</v>
       </c>
       <c r="F83">
         <v>2499</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="2"/>
-        <v>14.254517256518591</v>
+        <f>(F83+1)/(E83-D83)*1000</f>
+        <v>14.256061677425242</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -11626,23 +11643,23 @@
         <v>16</v>
       </c>
       <c r="B84">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="C84">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D84">
-        <v>137343</v>
+        <v>153306</v>
       </c>
       <c r="E84">
-        <v>312833</v>
+        <v>328689</v>
       </c>
       <c r="F84">
         <v>2499</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="2"/>
-        <v>14.245825972989914</v>
+        <f>(F84+1)/(E84-D84)*1000</f>
+        <v>14.254517256518591</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -11650,23 +11667,23 @@
         <v>16</v>
       </c>
       <c r="B85">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="C85">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="D85">
-        <v>143058</v>
+        <v>137343</v>
       </c>
       <c r="E85">
-        <v>318765</v>
+        <v>312833</v>
       </c>
       <c r="F85">
         <v>2499</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" si="2"/>
-        <v>14.228232227515125</v>
+        <f>(F85+1)/(E85-D85)*1000</f>
+        <v>14.245825972989914</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -11674,71 +11691,71 @@
         <v>16</v>
       </c>
       <c r="B86">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C86">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D86">
-        <v>141595</v>
+        <v>143058</v>
       </c>
       <c r="E86">
-        <v>317367</v>
+        <v>318765</v>
       </c>
       <c r="F86">
         <v>2499</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="2"/>
-        <v>14.222970666545297</v>
+        <f>(F86+1)/(E86-D86)*1000</f>
+        <v>14.228232227515125</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="C87">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="D87">
-        <v>212164</v>
+        <v>141595</v>
       </c>
       <c r="E87">
-        <v>388278</v>
+        <v>317367</v>
       </c>
       <c r="F87">
         <v>2499</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" si="2"/>
-        <v>14.195350738726054</v>
+        <f>(F87+1)/(E87-D87)*1000</f>
+        <v>14.222970666545297</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B88">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C88">
         <v>64</v>
       </c>
       <c r="D88">
-        <v>143229</v>
+        <v>212164</v>
       </c>
       <c r="E88">
-        <v>319430</v>
+        <v>388278</v>
       </c>
       <c r="F88">
         <v>2499</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="2"/>
-        <v>14.188341723372739</v>
+        <f>(F88+1)/(E88-D88)*1000</f>
+        <v>14.195350738726054</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -11746,23 +11763,23 @@
         <v>16</v>
       </c>
       <c r="B89">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D89">
-        <v>144476</v>
+        <v>143229</v>
       </c>
       <c r="E89">
-        <v>322082</v>
+        <v>319430</v>
       </c>
       <c r="F89">
         <v>2499</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="2"/>
-        <v>14.076101032622772</v>
+        <f>(F89+1)/(E89-D89)*1000</f>
+        <v>14.188341723372739</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -11770,23 +11787,23 @@
         <v>16</v>
       </c>
       <c r="B90">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C90">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D90">
-        <v>144784</v>
+        <v>144476</v>
       </c>
       <c r="E90">
-        <v>322686</v>
+        <v>322082</v>
       </c>
       <c r="F90">
         <v>2499</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="2"/>
-        <v>14.052680689368303</v>
+        <f>(F90+1)/(E90-D90)*1000</f>
+        <v>14.076101032622772</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -11794,23 +11811,23 @@
         <v>16</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="C91">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="D91">
-        <v>149648</v>
+        <v>144784</v>
       </c>
       <c r="E91">
-        <v>328021</v>
+        <v>322686</v>
       </c>
       <c r="F91">
         <v>2499</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="2"/>
-        <v>14.015574105946527</v>
+        <f>(F91+1)/(E91-D91)*1000</f>
+        <v>14.052680689368303</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -11821,20 +11838,20 @@
         <v>16</v>
       </c>
       <c r="C92">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D92">
-        <v>146229</v>
+        <v>149648</v>
       </c>
       <c r="E92">
-        <v>327333</v>
+        <v>328021</v>
       </c>
       <c r="F92">
         <v>2499</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" si="2"/>
-        <v>13.804222987896457</v>
+        <f>(F92+1)/(E92-D92)*1000</f>
+        <v>14.015574105946527</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -11842,23 +11859,23 @@
         <v>16</v>
       </c>
       <c r="B93">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="D93">
-        <v>145152</v>
+        <v>146229</v>
       </c>
       <c r="E93">
-        <v>327436</v>
+        <v>327333</v>
       </c>
       <c r="F93">
         <v>2499</v>
       </c>
       <c r="G93" s="3">
-        <f t="shared" si="2"/>
-        <v>13.714862522218077</v>
+        <f>(F93+1)/(E93-D93)*1000</f>
+        <v>13.804222987896457</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -11869,44 +11886,44 @@
         <v>256</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D94">
-        <v>148440</v>
+        <v>145152</v>
       </c>
       <c r="E94">
-        <v>331909</v>
+        <v>327436</v>
       </c>
       <c r="F94">
         <v>2499</v>
       </c>
       <c r="G94" s="3">
-        <f t="shared" si="2"/>
-        <v>13.62628018902376</v>
+        <f>(F94+1)/(E94-D94)*1000</f>
+        <v>13.714862522218077</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B95">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C95">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="D95">
-        <v>206033</v>
+        <v>148440</v>
       </c>
       <c r="E95">
-        <v>397427</v>
+        <v>331909</v>
       </c>
       <c r="F95">
         <v>2499</v>
       </c>
       <c r="G95" s="3">
-        <f t="shared" si="2"/>
-        <v>13.062060461665466</v>
+        <f>(F95+1)/(E95-D95)*1000</f>
+        <v>13.62628018902376</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -11914,23 +11931,23 @@
         <v>8</v>
       </c>
       <c r="B96">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C96">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D96">
-        <v>207638</v>
+        <v>206033</v>
       </c>
       <c r="E96">
-        <v>399624</v>
+        <v>397427</v>
       </c>
       <c r="F96">
         <v>2499</v>
       </c>
       <c r="G96" s="3">
-        <f t="shared" si="2"/>
-        <v>13.021782838331962</v>
+        <f>(F96+1)/(E96-D96)*1000</f>
+        <v>13.062060461665466</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -11938,23 +11955,23 @@
         <v>8</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C97">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="D97">
-        <v>210559</v>
+        <v>207638</v>
       </c>
       <c r="E97">
-        <v>408448</v>
+        <v>399624</v>
       </c>
       <c r="F97">
         <v>2499</v>
       </c>
       <c r="G97" s="3">
-        <f t="shared" ref="G97:G128" si="3">(F97+1)/(E97-D97)*1000</f>
-        <v>12.633344956010694</v>
+        <f>(F97+1)/(E97-D97)*1000</f>
+        <v>13.021782838331962</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -11962,23 +11979,23 @@
         <v>8</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C98">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="D98">
-        <v>213269</v>
+        <v>210559</v>
       </c>
       <c r="E98">
-        <v>413097</v>
+        <v>408448</v>
       </c>
       <c r="F98">
         <v>2499</v>
       </c>
       <c r="G98" s="3">
-        <f t="shared" si="3"/>
-        <v>12.510759252957543</v>
+        <f>(F98+1)/(E98-D98)*1000</f>
+        <v>12.633344956010694</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -11986,23 +12003,23 @@
         <v>8</v>
       </c>
       <c r="B99">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="D99">
-        <v>209519</v>
+        <v>213269</v>
       </c>
       <c r="E99">
-        <v>411159</v>
+        <v>413097</v>
       </c>
       <c r="F99">
         <v>2499</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" si="3"/>
-        <v>12.398333663955565</v>
+        <f>(F99+1)/(E99-D99)*1000</f>
+        <v>12.510759252957543</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -12010,23 +12027,23 @@
         <v>8</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C100">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D100">
-        <v>213706</v>
+        <v>209519</v>
       </c>
       <c r="E100">
-        <v>422620</v>
+        <v>411159</v>
       </c>
       <c r="F100">
         <v>2499</v>
       </c>
       <c r="G100" s="3">
-        <f t="shared" si="3"/>
-        <v>11.966646562700442</v>
+        <f>(F100+1)/(E100-D100)*1000</f>
+        <v>12.398333663955565</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -12034,23 +12051,23 @@
         <v>8</v>
       </c>
       <c r="B101">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="C101">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>322688</v>
+        <v>213706</v>
       </c>
       <c r="E101">
-        <v>554438</v>
+        <v>422620</v>
       </c>
       <c r="F101">
         <v>2499</v>
       </c>
       <c r="G101" s="3">
-        <f t="shared" si="3"/>
-        <v>10.787486515641856</v>
+        <f>(F101+1)/(E101-D101)*1000</f>
+        <v>11.966646562700442</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -12058,23 +12075,23 @@
         <v>8</v>
       </c>
       <c r="B102">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C102">
         <v>32</v>
       </c>
       <c r="D102">
-        <v>314266</v>
+        <v>322688</v>
       </c>
       <c r="E102">
-        <v>546584</v>
+        <v>554438</v>
       </c>
       <c r="F102">
         <v>2499</v>
       </c>
       <c r="G102" s="3">
-        <f t="shared" si="3"/>
-        <v>10.761111924172901</v>
+        <f>(F102+1)/(E102-D102)*1000</f>
+        <v>10.787486515641856</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -12082,23 +12099,23 @@
         <v>8</v>
       </c>
       <c r="B103">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C103">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="D103">
-        <v>313024</v>
+        <v>314266</v>
       </c>
       <c r="E103">
-        <v>545612</v>
+        <v>546584</v>
       </c>
       <c r="F103">
         <v>2499</v>
       </c>
       <c r="G103" s="3">
-        <f t="shared" si="3"/>
-        <v>10.748619877207766</v>
+        <f>(F103+1)/(E103-D103)*1000</f>
+        <v>10.761111924172901</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -12106,23 +12123,23 @@
         <v>8</v>
       </c>
       <c r="B104">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C104">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="D104">
-        <v>320007</v>
+        <v>313024</v>
       </c>
       <c r="E104">
-        <v>552990</v>
+        <v>545612</v>
       </c>
       <c r="F104">
         <v>2499</v>
       </c>
       <c r="G104" s="3">
-        <f t="shared" si="3"/>
-        <v>10.730396638381341</v>
+        <f>(F104+1)/(E104-D104)*1000</f>
+        <v>10.748619877207766</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -12130,23 +12147,23 @@
         <v>8</v>
       </c>
       <c r="B105">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="C105">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="D105">
-        <v>317370</v>
+        <v>320007</v>
       </c>
       <c r="E105">
-        <v>550615</v>
+        <v>552990</v>
       </c>
       <c r="F105">
         <v>2499</v>
       </c>
       <c r="G105" s="3">
-        <f t="shared" si="3"/>
-        <v>10.718343372848292</v>
+        <f>(F105+1)/(E105-D105)*1000</f>
+        <v>10.730396638381341</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -12154,23 +12171,23 @@
         <v>8</v>
       </c>
       <c r="B106">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="C106">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="D106">
-        <v>312131</v>
+        <v>317370</v>
       </c>
       <c r="E106">
-        <v>545385</v>
+        <v>550615</v>
       </c>
       <c r="F106">
         <v>2499</v>
       </c>
       <c r="G106" s="3">
-        <f t="shared" si="3"/>
-        <v>10.717929810421257</v>
+        <f>(F106+1)/(E106-D106)*1000</f>
+        <v>10.718343372848292</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -12178,23 +12195,23 @@
         <v>8</v>
       </c>
       <c r="B107">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D107">
-        <v>312836</v>
+        <v>312131</v>
       </c>
       <c r="E107">
-        <v>546798</v>
+        <v>545385</v>
       </c>
       <c r="F107">
         <v>2499</v>
       </c>
       <c r="G107" s="3">
-        <f t="shared" si="3"/>
-        <v>10.685495935237345</v>
+        <f>(F107+1)/(E107-D107)*1000</f>
+        <v>10.717929810421257</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -12202,23 +12219,23 @@
         <v>8</v>
       </c>
       <c r="B108">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="C108">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D108">
-        <v>318873</v>
+        <v>312836</v>
       </c>
       <c r="E108">
-        <v>552905</v>
+        <v>546798</v>
       </c>
       <c r="F108">
         <v>2499</v>
       </c>
       <c r="G108" s="3">
-        <f t="shared" si="3"/>
-        <v>10.682299856429889</v>
+        <f>(F108+1)/(E108-D108)*1000</f>
+        <v>10.685495935237345</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -12226,23 +12243,23 @@
         <v>8</v>
       </c>
       <c r="B109">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C109">
         <v>64</v>
       </c>
       <c r="D109">
-        <v>317598</v>
+        <v>318873</v>
       </c>
       <c r="E109">
-        <v>551998</v>
+        <v>552905</v>
       </c>
       <c r="F109">
         <v>2499</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" si="3"/>
-        <v>10.66552901023891</v>
+        <f>(F109+1)/(E109-D109)*1000</f>
+        <v>10.682299856429889</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -12253,20 +12270,20 @@
         <v>256</v>
       </c>
       <c r="C110">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D110">
-        <v>327438</v>
+        <v>317598</v>
       </c>
       <c r="E110">
-        <v>561942</v>
+        <v>551998</v>
       </c>
       <c r="F110">
         <v>2499</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" si="3"/>
-        <v>10.660798962917477</v>
+        <f>(F110+1)/(E110-D110)*1000</f>
+        <v>10.66552901023891</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -12274,23 +12291,23 @@
         <v>8</v>
       </c>
       <c r="B111">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D111">
-        <v>317317</v>
+        <v>327438</v>
       </c>
       <c r="E111">
-        <v>551984</v>
+        <v>561942</v>
       </c>
       <c r="F111">
         <v>2499</v>
       </c>
       <c r="G111" s="3">
-        <f t="shared" si="3"/>
-        <v>10.653393958247218</v>
+        <f>(F111+1)/(E111-D111)*1000</f>
+        <v>10.660798962917477</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -12298,23 +12315,23 @@
         <v>8</v>
       </c>
       <c r="B112">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C112">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D112">
-        <v>312934</v>
+        <v>317317</v>
       </c>
       <c r="E112">
-        <v>547923</v>
+        <v>551984</v>
       </c>
       <c r="F112">
         <v>2499</v>
       </c>
       <c r="G112" s="3">
-        <f t="shared" si="3"/>
-        <v>10.63879585852955</v>
+        <f>(F112+1)/(E112-D112)*1000</f>
+        <v>10.653393958247218</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -12322,23 +12339,23 @@
         <v>8</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C113">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D113">
-        <v>325273</v>
+        <v>312934</v>
       </c>
       <c r="E113">
-        <v>560618</v>
+        <v>547923</v>
       </c>
       <c r="F113">
         <v>2499</v>
       </c>
       <c r="G113" s="3">
-        <f t="shared" si="3"/>
-        <v>10.62270284051074</v>
+        <f>(F113+1)/(E113-D113)*1000</f>
+        <v>10.63879585852955</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -12346,23 +12363,23 @@
         <v>8</v>
       </c>
       <c r="B114">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C114">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D114">
-        <v>319433</v>
+        <v>325273</v>
       </c>
       <c r="E114">
-        <v>554812</v>
+        <v>560618</v>
       </c>
       <c r="F114">
         <v>2499</v>
       </c>
       <c r="G114" s="3">
-        <f t="shared" si="3"/>
-        <v>10.621168413494832</v>
+        <f>(F114+1)/(E114-D114)*1000</f>
+        <v>10.62270284051074</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -12370,23 +12387,23 @@
         <v>8</v>
       </c>
       <c r="B115">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C115">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="D115">
-        <v>327336</v>
+        <v>319433</v>
       </c>
       <c r="E115">
-        <v>563265</v>
+        <v>554812</v>
       </c>
       <c r="F115">
         <v>2499</v>
       </c>
       <c r="G115" s="3">
-        <f t="shared" si="3"/>
-        <v>10.596408241462473</v>
+        <f>(F115+1)/(E115-D115)*1000</f>
+        <v>10.621168413494832</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -12394,23 +12411,23 @@
         <v>8</v>
       </c>
       <c r="B116">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C116">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="D116">
-        <v>320436</v>
+        <v>327336</v>
       </c>
       <c r="E116">
-        <v>556540</v>
+        <v>563265</v>
       </c>
       <c r="F116">
         <v>2499</v>
       </c>
       <c r="G116" s="3">
-        <f t="shared" si="3"/>
-        <v>10.588554196455799</v>
+        <f>(F116+1)/(E116-D116)*1000</f>
+        <v>10.596408241462473</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -12418,23 +12435,23 @@
         <v>8</v>
       </c>
       <c r="B117">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C117">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D117">
-        <v>317986</v>
+        <v>320436</v>
       </c>
       <c r="E117">
-        <v>554135</v>
+        <v>556540</v>
       </c>
       <c r="F117">
         <v>2499</v>
       </c>
       <c r="G117" s="3">
-        <f t="shared" si="3"/>
-        <v>10.586536466383512</v>
+        <f>(F117+1)/(E117-D117)*1000</f>
+        <v>10.588554196455799</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -12442,23 +12459,23 @@
         <v>8</v>
       </c>
       <c r="B118">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C118">
         <v>32</v>
       </c>
       <c r="D118">
-        <v>313473</v>
+        <v>317986</v>
       </c>
       <c r="E118">
-        <v>549758</v>
+        <v>554135</v>
       </c>
       <c r="F118">
         <v>2499</v>
       </c>
       <c r="G118" s="3">
-        <f t="shared" si="3"/>
-        <v>10.580443108957404</v>
+        <f>(F118+1)/(E118-D118)*1000</f>
+        <v>10.586536466383512</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -12466,23 +12483,23 @@
         <v>8</v>
       </c>
       <c r="B119">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C119">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="D119">
-        <v>317067</v>
+        <v>313473</v>
       </c>
       <c r="E119">
-        <v>553636</v>
+        <v>549758</v>
       </c>
       <c r="F119">
         <v>2499</v>
       </c>
       <c r="G119" s="3">
-        <f t="shared" si="3"/>
-        <v>10.567741335508879</v>
+        <f>(F119+1)/(E119-D119)*1000</f>
+        <v>10.580443108957404</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -12490,23 +12507,23 @@
         <v>8</v>
       </c>
       <c r="B120">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C120">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="D120">
-        <v>313833</v>
+        <v>317067</v>
       </c>
       <c r="E120">
-        <v>550405</v>
+        <v>553636</v>
       </c>
       <c r="F120">
         <v>2499</v>
       </c>
       <c r="G120" s="3">
-        <f t="shared" si="3"/>
-        <v>10.567607324619988</v>
+        <f>(F120+1)/(E120-D120)*1000</f>
+        <v>10.567741335508879</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -12514,23 +12531,23 @@
         <v>8</v>
       </c>
       <c r="B121">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C121">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D121">
-        <v>318405</v>
+        <v>313833</v>
       </c>
       <c r="E121">
-        <v>555263</v>
+        <v>550405</v>
       </c>
       <c r="F121">
         <v>2499</v>
       </c>
       <c r="G121" s="3">
-        <f t="shared" si="3"/>
-        <v>10.554847208031816</v>
+        <f>(F121+1)/(E121-D121)*1000</f>
+        <v>10.567607324619988</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -12538,23 +12555,23 @@
         <v>8</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="C122">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D122">
-        <v>322085</v>
+        <v>318405</v>
       </c>
       <c r="E122">
-        <v>560566</v>
+        <v>555263</v>
       </c>
       <c r="F122">
         <v>2499</v>
       </c>
       <c r="G122" s="3">
-        <f t="shared" si="3"/>
-        <v>10.483015418419077</v>
+        <f>(F122+1)/(E122-D122)*1000</f>
+        <v>10.554847208031816</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -12562,23 +12579,23 @@
         <v>8</v>
       </c>
       <c r="B123">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C123">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="D123">
-        <v>319058</v>
+        <v>322085</v>
       </c>
       <c r="E123">
-        <v>558217</v>
+        <v>560566</v>
       </c>
       <c r="F123">
         <v>2499</v>
       </c>
       <c r="G123" s="3">
-        <f t="shared" si="3"/>
-        <v>10.4532967607324</v>
+        <f>(F123+1)/(E123-D123)*1000</f>
+        <v>10.483015418419077</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -12589,20 +12606,20 @@
         <v>128</v>
       </c>
       <c r="C124">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D124">
-        <v>318769</v>
+        <v>319058</v>
       </c>
       <c r="E124">
-        <v>558284</v>
+        <v>558217</v>
       </c>
       <c r="F124">
         <v>2499</v>
       </c>
       <c r="G124" s="3">
-        <f t="shared" si="3"/>
-        <v>10.437759639271027</v>
+        <f>(F124+1)/(E124-D124)*1000</f>
+        <v>10.4532967607324</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -12610,23 +12627,23 @@
         <v>8</v>
       </c>
       <c r="B125">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C125">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="D125">
-        <v>322384</v>
+        <v>318769</v>
       </c>
       <c r="E125">
-        <v>562572</v>
+        <v>558284</v>
       </c>
       <c r="F125">
         <v>2499</v>
       </c>
       <c r="G125" s="3">
-        <f t="shared" si="3"/>
-        <v>10.408513331223874</v>
+        <f>(F125+1)/(E125-D125)*1000</f>
+        <v>10.437759639271027</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -12634,23 +12651,23 @@
         <v>8</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C126">
-        <v>512</v>
+        <v>16</v>
       </c>
       <c r="D126">
-        <v>328024</v>
+        <v>322384</v>
       </c>
       <c r="E126">
-        <v>568707</v>
+        <v>562572</v>
       </c>
       <c r="F126">
         <v>2499</v>
       </c>
       <c r="G126" s="3">
-        <f t="shared" si="3"/>
-        <v>10.3871066922051</v>
+        <f>(F126+1)/(E126-D126)*1000</f>
+        <v>10.408513331223874</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -12658,26 +12675,53 @@
         <v>8</v>
       </c>
       <c r="B127">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C127">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="D127">
+        <v>328024</v>
+      </c>
+      <c r="E127">
+        <v>568707</v>
+      </c>
+      <c r="F127">
+        <v>2499</v>
+      </c>
+      <c r="G127" s="3">
+        <f>(F127+1)/(E127-D127)*1000</f>
+        <v>10.3871066922051</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>8</v>
+      </c>
+      <c r="B128">
+        <v>256</v>
+      </c>
+      <c r="C128">
+        <v>8</v>
+      </c>
+      <c r="D128">
         <v>331912</v>
       </c>
-      <c r="E127">
+      <c r="E128">
         <v>574251</v>
       </c>
-      <c r="F127">
-        <v>2499</v>
-      </c>
-      <c r="G127" s="3">
-        <f t="shared" si="3"/>
+      <c r="F128">
+        <v>2499</v>
+      </c>
+      <c r="G128" s="3">
+        <f>(F128+1)/(E128-D128)*1000</f>
         <v>10.316127408299943</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G128">
+    <sortCondition descending="1" ref="G1:G128"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>